--- a/RobbyYu/Kmeans/Original/THE_Asia.xlsx
+++ b/RobbyYu/Kmeans/Original/THE_Asia.xlsx
@@ -1,40 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20388"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tsuniwan/PycharmProjects/IR_NCU/Datas/THE_world_asia/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\georg\PycharmProjects\pythonProject\RobbyYu\Kmeans\Original\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{927E7D50-DB89-FF4D-B5CE-935CE10A4CA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B277DCE1-926B-4B20-B8F6-D8730D1F6921}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="500" windowWidth="19200" windowHeight="21100" xr2:uid="{F74F6196-6389-45E6-BE86-199746C945DA}"/>
+    <workbookView xWindow="19200" yWindow="504" windowWidth="19200" windowHeight="21096" activeTab="1" xr2:uid="{F74F6196-6389-45E6-BE86-199746C945DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="工作表1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1682" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1695" uniqueCount="468">
   <si>
     <t>Year</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1432,13 +1424,44 @@
   <si>
     <t>台灣大學</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reputation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Research</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scholar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Citations</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Teaching</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>International</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>International outlook</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Industry income</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1462,16 +1485,42 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1479,13 +1528,96 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1495,9 +1627,49 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="百分比" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1811,13 +1983,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FFD0F61-B1F6-43FF-B9E7-18E45657851B}">
   <dimension ref="A1:N517"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A245" workbookViewId="0">
-      <selection activeCell="H250" sqref="H250"/>
+    <sheetView topLeftCell="A245" workbookViewId="0">
+      <selection activeCell="R261" sqref="R261"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1861,7 +2033,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2013</v>
       </c>
@@ -1906,7 +2078,7 @@
         <v>39.6</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2013</v>
       </c>
@@ -1951,7 +2123,7 @@
         <v>25.2</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2013</v>
       </c>
@@ -1996,7 +2168,7 @@
         <v>22.1</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2013</v>
       </c>
@@ -2041,7 +2213,7 @@
         <v>56.4</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2013</v>
       </c>
@@ -2086,7 +2258,7 @@
         <v>45.5</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2013</v>
       </c>
@@ -2131,7 +2303,7 @@
         <v>27.9</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2013</v>
       </c>
@@ -2176,7 +2348,7 @@
         <v>33.1</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2013</v>
       </c>
@@ -2221,7 +2393,7 @@
         <v>26.8</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2013</v>
       </c>
@@ -2266,7 +2438,7 @@
         <v>22.9</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2013</v>
       </c>
@@ -2311,7 +2483,7 @@
         <v>19.3</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2013</v>
       </c>
@@ -2356,7 +2528,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2013</v>
       </c>
@@ -2401,7 +2573,7 @@
         <v>14.9</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2013</v>
       </c>
@@ -2446,7 +2618,7 @@
         <v>14.9</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2013</v>
       </c>
@@ -2491,7 +2663,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2013</v>
       </c>
@@ -2536,7 +2708,7 @@
         <v>32.5</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2013</v>
       </c>
@@ -2581,7 +2753,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2013</v>
       </c>
@@ -2626,7 +2798,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2014</v>
       </c>
@@ -2671,7 +2843,7 @@
         <v>22.6</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2014</v>
       </c>
@@ -2716,7 +2888,7 @@
         <v>37.299999999999997</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2014</v>
       </c>
@@ -2761,7 +2933,7 @@
         <v>47.1</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2014</v>
       </c>
@@ -2806,7 +2978,7 @@
         <v>39.5</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2014</v>
       </c>
@@ -2851,7 +3023,7 @@
         <v>31.5</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>2014</v>
       </c>
@@ -2896,7 +3068,7 @@
         <v>27.3</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2014</v>
       </c>
@@ -2941,7 +3113,7 @@
         <v>25.5</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>2014</v>
       </c>
@@ -2986,7 +3158,7 @@
         <v>18.899999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>2014</v>
       </c>
@@ -3031,7 +3203,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>2014</v>
       </c>
@@ -3076,7 +3248,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>2014</v>
       </c>
@@ -3121,7 +3293,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>2014</v>
       </c>
@@ -3166,7 +3338,7 @@
         <v>30.3</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>2014</v>
       </c>
@@ -3211,7 +3383,7 @@
         <v>13.6</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>2015</v>
       </c>
@@ -3256,7 +3428,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>2015</v>
       </c>
@@ -3301,7 +3473,7 @@
         <v>23.1</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>2015</v>
       </c>
@@ -3346,7 +3518,7 @@
         <v>48.8</v>
       </c>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>2015</v>
       </c>
@@ -3391,7 +3563,7 @@
         <v>39.4</v>
       </c>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>2015</v>
       </c>
@@ -3436,7 +3608,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>2015</v>
       </c>
@@ -3481,7 +3653,7 @@
         <v>27.7</v>
       </c>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>2015</v>
       </c>
@@ -3526,7 +3698,7 @@
         <v>26.4</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>2015</v>
       </c>
@@ -3571,7 +3743,7 @@
         <v>20.9</v>
       </c>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>2015</v>
       </c>
@@ -3616,7 +3788,7 @@
         <v>26.7</v>
       </c>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>2015</v>
       </c>
@@ -3661,7 +3833,7 @@
         <v>12.9</v>
       </c>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>2015</v>
       </c>
@@ -3706,7 +3878,7 @@
         <v>27.3</v>
       </c>
     </row>
-    <row r="43" spans="1:14">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>2016</v>
       </c>
@@ -3751,7 +3923,7 @@
         <v>52.9</v>
       </c>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>2016</v>
       </c>
@@ -3796,7 +3968,7 @@
         <v>35.9</v>
       </c>
     </row>
-    <row r="45" spans="1:14">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>2016</v>
       </c>
@@ -3841,7 +4013,7 @@
         <v>42.2</v>
       </c>
     </row>
-    <row r="46" spans="1:14">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>2016</v>
       </c>
@@ -3886,7 +4058,7 @@
         <v>33.200000000000003</v>
       </c>
     </row>
-    <row r="47" spans="1:14">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>2016</v>
       </c>
@@ -3931,7 +4103,7 @@
         <v>27.3</v>
       </c>
     </row>
-    <row r="48" spans="1:14">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>2016</v>
       </c>
@@ -3976,7 +4148,7 @@
         <v>29.9</v>
       </c>
     </row>
-    <row r="49" spans="1:14">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>2016</v>
       </c>
@@ -4021,7 +4193,7 @@
         <v>48.7</v>
       </c>
     </row>
-    <row r="50" spans="1:14">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>2016</v>
       </c>
@@ -4066,7 +4238,7 @@
         <v>29.7</v>
       </c>
     </row>
-    <row r="51" spans="1:14">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>2016</v>
       </c>
@@ -4111,7 +4283,7 @@
         <v>22.8</v>
       </c>
     </row>
-    <row r="52" spans="1:14">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>2016</v>
       </c>
@@ -4156,7 +4328,7 @@
         <v>29.8</v>
       </c>
     </row>
-    <row r="53" spans="1:14">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>2016</v>
       </c>
@@ -4201,7 +4373,7 @@
         <v>19.399999999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:14">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>2016</v>
       </c>
@@ -4246,7 +4418,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="55" spans="1:14">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>2016</v>
       </c>
@@ -4291,7 +4463,7 @@
         <v>17.2</v>
       </c>
     </row>
-    <row r="56" spans="1:14">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>2016</v>
       </c>
@@ -4336,7 +4508,7 @@
         <v>23.6</v>
       </c>
     </row>
-    <row r="57" spans="1:14">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>2016</v>
       </c>
@@ -4381,7 +4553,7 @@
         <v>37.200000000000003</v>
       </c>
     </row>
-    <row r="58" spans="1:14">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>2016</v>
       </c>
@@ -4426,7 +4598,7 @@
         <v>21.2</v>
       </c>
     </row>
-    <row r="59" spans="1:14">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>2016</v>
       </c>
@@ -4471,7 +4643,7 @@
         <v>18.8</v>
       </c>
     </row>
-    <row r="60" spans="1:14">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>2016</v>
       </c>
@@ -4516,7 +4688,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="61" spans="1:14">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>2016</v>
       </c>
@@ -4561,7 +4733,7 @@
         <v>21.4</v>
       </c>
     </row>
-    <row r="62" spans="1:14">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>2016</v>
       </c>
@@ -4606,7 +4778,7 @@
         <v>17.100000000000001</v>
       </c>
     </row>
-    <row r="63" spans="1:14">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>2016</v>
       </c>
@@ -4651,7 +4823,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="64" spans="1:14">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>2016</v>
       </c>
@@ -4696,7 +4868,7 @@
         <v>15.3</v>
       </c>
     </row>
-    <row r="65" spans="1:14">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>2016</v>
       </c>
@@ -4741,7 +4913,7 @@
         <v>24.1</v>
       </c>
     </row>
-    <row r="66" spans="1:14">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>2016</v>
       </c>
@@ -4786,7 +4958,7 @@
         <v>30.3</v>
       </c>
     </row>
-    <row r="67" spans="1:14">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>2017</v>
       </c>
@@ -4831,7 +5003,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="68" spans="1:14">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>2017</v>
       </c>
@@ -4876,7 +5048,7 @@
         <v>43.7</v>
       </c>
     </row>
-    <row r="69" spans="1:14">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>2017</v>
       </c>
@@ -4921,7 +5093,7 @@
         <v>34.6</v>
       </c>
     </row>
-    <row r="70" spans="1:14">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>2017</v>
       </c>
@@ -4966,7 +5138,7 @@
         <v>34.299999999999997</v>
       </c>
     </row>
-    <row r="71" spans="1:14">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>2017</v>
       </c>
@@ -5011,7 +5183,7 @@
         <v>27.7</v>
       </c>
     </row>
-    <row r="72" spans="1:14">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>2017</v>
       </c>
@@ -5056,7 +5228,7 @@
         <v>31.6</v>
       </c>
     </row>
-    <row r="73" spans="1:14">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>2017</v>
       </c>
@@ -5101,7 +5273,7 @@
         <v>30.8</v>
       </c>
     </row>
-    <row r="74" spans="1:14">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>2017</v>
       </c>
@@ -5146,7 +5318,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="75" spans="1:14">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>2017</v>
       </c>
@@ -5191,7 +5363,7 @@
         <v>36.700000000000003</v>
       </c>
     </row>
-    <row r="76" spans="1:14">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>2017</v>
       </c>
@@ -5236,7 +5408,7 @@
         <v>24.6</v>
       </c>
     </row>
-    <row r="77" spans="1:14">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>2017</v>
       </c>
@@ -5281,7 +5453,7 @@
         <v>17.2</v>
       </c>
     </row>
-    <row r="78" spans="1:14">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>2017</v>
       </c>
@@ -5326,7 +5498,7 @@
         <v>23.7</v>
       </c>
     </row>
-    <row r="79" spans="1:14">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>2017</v>
       </c>
@@ -5371,7 +5543,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="80" spans="1:14">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>2017</v>
       </c>
@@ -5416,7 +5588,7 @@
         <v>23.1</v>
       </c>
     </row>
-    <row r="81" spans="1:14">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>2017</v>
       </c>
@@ -5461,7 +5633,7 @@
         <v>15.7</v>
       </c>
     </row>
-    <row r="82" spans="1:14">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>2017</v>
       </c>
@@ -5506,7 +5678,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="83" spans="1:14">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>2017</v>
       </c>
@@ -5551,7 +5723,7 @@
         <v>20.3</v>
       </c>
     </row>
-    <row r="84" spans="1:14">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>2017</v>
       </c>
@@ -5596,7 +5768,7 @@
         <v>18.8</v>
       </c>
     </row>
-    <row r="85" spans="1:14">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>2017</v>
       </c>
@@ -5641,7 +5813,7 @@
         <v>16.2</v>
       </c>
     </row>
-    <row r="86" spans="1:14">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>2017</v>
       </c>
@@ -5686,7 +5858,7 @@
         <v>15.1</v>
       </c>
     </row>
-    <row r="87" spans="1:14">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>2017</v>
       </c>
@@ -5731,7 +5903,7 @@
         <v>21.7</v>
       </c>
     </row>
-    <row r="88" spans="1:14">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>2017</v>
       </c>
@@ -5776,7 +5948,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="89" spans="1:14">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>2017</v>
       </c>
@@ -5821,7 +5993,7 @@
         <v>15.8</v>
       </c>
     </row>
-    <row r="90" spans="1:14">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>2017</v>
       </c>
@@ -5866,7 +6038,7 @@
         <v>37.799999999999997</v>
       </c>
     </row>
-    <row r="91" spans="1:14">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>2017</v>
       </c>
@@ -5911,7 +6083,7 @@
         <v>30.6</v>
       </c>
     </row>
-    <row r="92" spans="1:14">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>2017</v>
       </c>
@@ -5956,7 +6128,7 @@
         <v>22.4</v>
       </c>
     </row>
-    <row r="93" spans="1:14">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>2018</v>
       </c>
@@ -6001,7 +6173,7 @@
         <v>49.5</v>
       </c>
     </row>
-    <row r="94" spans="1:14">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>2018</v>
       </c>
@@ -6046,7 +6218,7 @@
         <v>42.3</v>
       </c>
     </row>
-    <row r="95" spans="1:14">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>2018</v>
       </c>
@@ -6091,7 +6263,7 @@
         <v>34.700000000000003</v>
       </c>
     </row>
-    <row r="96" spans="1:14">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>2018</v>
       </c>
@@ -6136,7 +6308,7 @@
         <v>31.4</v>
       </c>
     </row>
-    <row r="97" spans="1:14">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>2018</v>
       </c>
@@ -6181,7 +6353,7 @@
         <v>28.3</v>
       </c>
     </row>
-    <row r="98" spans="1:14">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>2018</v>
       </c>
@@ -6226,7 +6398,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="99" spans="1:14">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>2018</v>
       </c>
@@ -6271,7 +6443,7 @@
         <v>29.3</v>
       </c>
     </row>
-    <row r="100" spans="1:14">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>2018</v>
       </c>
@@ -6316,7 +6488,7 @@
         <v>44.3</v>
       </c>
     </row>
-    <row r="101" spans="1:14">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>2018</v>
       </c>
@@ -6361,7 +6533,7 @@
         <v>28.3</v>
       </c>
     </row>
-    <row r="102" spans="1:14">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>2018</v>
       </c>
@@ -6406,7 +6578,7 @@
         <v>25.3</v>
       </c>
     </row>
-    <row r="103" spans="1:14">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>2018</v>
       </c>
@@ -6451,7 +6623,7 @@
         <v>23.7</v>
       </c>
     </row>
-    <row r="104" spans="1:14">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>2018</v>
       </c>
@@ -6496,7 +6668,7 @@
         <v>22.6</v>
       </c>
     </row>
-    <row r="105" spans="1:14">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>2018</v>
       </c>
@@ -6541,7 +6713,7 @@
         <v>22.3</v>
       </c>
     </row>
-    <row r="106" spans="1:14">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>2018</v>
       </c>
@@ -6586,7 +6758,7 @@
         <v>26.3</v>
       </c>
     </row>
-    <row r="107" spans="1:14">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>2018</v>
       </c>
@@ -6631,7 +6803,7 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="108" spans="1:14">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>2018</v>
       </c>
@@ -6676,7 +6848,7 @@
         <v>22.2</v>
       </c>
     </row>
-    <row r="109" spans="1:14">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>2018</v>
       </c>
@@ -6721,7 +6893,7 @@
         <v>19.8</v>
       </c>
     </row>
-    <row r="110" spans="1:14">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>2018</v>
       </c>
@@ -6766,7 +6938,7 @@
         <v>19.899999999999999</v>
       </c>
     </row>
-    <row r="111" spans="1:14">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>2018</v>
       </c>
@@ -6811,7 +6983,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="112" spans="1:14">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>2018</v>
       </c>
@@ -6856,7 +7028,7 @@
         <v>23.8</v>
       </c>
     </row>
-    <row r="113" spans="1:14">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>2018</v>
       </c>
@@ -6901,7 +7073,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="114" spans="1:14">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>2018</v>
       </c>
@@ -6946,7 +7118,7 @@
         <v>24.3</v>
       </c>
     </row>
-    <row r="115" spans="1:14">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>2018</v>
       </c>
@@ -6991,7 +7163,7 @@
         <v>18.899999999999999</v>
       </c>
     </row>
-    <row r="116" spans="1:14">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>2018</v>
       </c>
@@ -7036,7 +7208,7 @@
         <v>20.6</v>
       </c>
     </row>
-    <row r="117" spans="1:14">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>2018</v>
       </c>
@@ -7081,7 +7253,7 @@
         <v>16.2</v>
       </c>
     </row>
-    <row r="118" spans="1:14">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>2018</v>
       </c>
@@ -7126,7 +7298,7 @@
         <v>18.100000000000001</v>
       </c>
     </row>
-    <row r="119" spans="1:14">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>2018</v>
       </c>
@@ -7171,7 +7343,7 @@
         <v>17.399999999999999</v>
       </c>
     </row>
-    <row r="120" spans="1:14">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>2018</v>
       </c>
@@ -7216,7 +7388,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="121" spans="1:14">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>2018</v>
       </c>
@@ -7261,7 +7433,7 @@
         <v>18.7</v>
       </c>
     </row>
-    <row r="122" spans="1:14">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>2018</v>
       </c>
@@ -7306,7 +7478,7 @@
         <v>28.8</v>
       </c>
     </row>
-    <row r="123" spans="1:14">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>2018</v>
       </c>
@@ -7351,7 +7523,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="124" spans="1:14">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>2019</v>
       </c>
@@ -7396,7 +7568,7 @@
         <v>53.2</v>
       </c>
     </row>
-    <row r="125" spans="1:14">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>2019</v>
       </c>
@@ -7441,7 +7613,7 @@
         <v>33.299999999999997</v>
       </c>
     </row>
-    <row r="126" spans="1:14">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>2019</v>
       </c>
@@ -7486,7 +7658,7 @@
         <v>27.8</v>
       </c>
     </row>
-    <row r="127" spans="1:14">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>2019</v>
       </c>
@@ -7531,7 +7703,7 @@
         <v>33.700000000000003</v>
       </c>
     </row>
-    <row r="128" spans="1:14">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>2019</v>
       </c>
@@ -7576,7 +7748,7 @@
         <v>30.8</v>
       </c>
     </row>
-    <row r="129" spans="1:14">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>2019</v>
       </c>
@@ -7621,7 +7793,7 @@
         <v>40.299999999999997</v>
       </c>
     </row>
-    <row r="130" spans="1:14">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>2019</v>
       </c>
@@ -7666,7 +7838,7 @@
         <v>33.4</v>
       </c>
     </row>
-    <row r="131" spans="1:14">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>2019</v>
       </c>
@@ -7711,7 +7883,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="132" spans="1:14">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>2019</v>
       </c>
@@ -7756,7 +7928,7 @@
         <v>48.2</v>
       </c>
     </row>
-    <row r="133" spans="1:14">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>2019</v>
       </c>
@@ -7801,7 +7973,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="134" spans="1:14">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>2019</v>
       </c>
@@ -7846,7 +8018,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="135" spans="1:14">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>2019</v>
       </c>
@@ -7891,7 +8063,7 @@
         <v>28.2</v>
       </c>
     </row>
-    <row r="136" spans="1:14">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>2019</v>
       </c>
@@ -7936,7 +8108,7 @@
         <v>22.7</v>
       </c>
     </row>
-    <row r="137" spans="1:14">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>2019</v>
       </c>
@@ -7981,7 +8153,7 @@
         <v>27.2</v>
       </c>
     </row>
-    <row r="138" spans="1:14">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>2019</v>
       </c>
@@ -8026,7 +8198,7 @@
         <v>22.7</v>
       </c>
     </row>
-    <row r="139" spans="1:14">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>2019</v>
       </c>
@@ -8071,7 +8243,7 @@
         <v>18.399999999999999</v>
       </c>
     </row>
-    <row r="140" spans="1:14">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>2019</v>
       </c>
@@ -8116,7 +8288,7 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="141" spans="1:14">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>2019</v>
       </c>
@@ -8161,7 +8333,7 @@
         <v>22.4</v>
       </c>
     </row>
-    <row r="142" spans="1:14">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>2019</v>
       </c>
@@ -8206,7 +8378,7 @@
         <v>21.1</v>
       </c>
     </row>
-    <row r="143" spans="1:14">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>2019</v>
       </c>
@@ -8251,7 +8423,7 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="144" spans="1:14">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>2019</v>
       </c>
@@ -8296,7 +8468,7 @@
         <v>17.600000000000001</v>
       </c>
     </row>
-    <row r="145" spans="1:14">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>2019</v>
       </c>
@@ -8341,7 +8513,7 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="146" spans="1:14">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>2019</v>
       </c>
@@ -8386,7 +8558,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="147" spans="1:14">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>2019</v>
       </c>
@@ -8431,7 +8603,7 @@
         <v>19.3</v>
       </c>
     </row>
-    <row r="148" spans="1:14">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>2019</v>
       </c>
@@ -8476,7 +8648,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="149" spans="1:14">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>2019</v>
       </c>
@@ -8521,7 +8693,7 @@
         <v>20.3</v>
       </c>
     </row>
-    <row r="150" spans="1:14">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>2019</v>
       </c>
@@ -8566,7 +8738,7 @@
         <v>19.600000000000001</v>
       </c>
     </row>
-    <row r="151" spans="1:14">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>2019</v>
       </c>
@@ -8611,7 +8783,7 @@
         <v>16.399999999999999</v>
       </c>
     </row>
-    <row r="152" spans="1:14">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>2019</v>
       </c>
@@ -8656,7 +8828,7 @@
         <v>14.1</v>
       </c>
     </row>
-    <row r="153" spans="1:14">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>2019</v>
       </c>
@@ -8701,7 +8873,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="154" spans="1:14">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>2019</v>
       </c>
@@ -8746,7 +8918,7 @@
         <v>14.3</v>
       </c>
     </row>
-    <row r="155" spans="1:14">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>2019</v>
       </c>
@@ -8791,7 +8963,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="156" spans="1:14">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>2020</v>
       </c>
@@ -8836,7 +9008,7 @@
         <v>55.6</v>
       </c>
     </row>
-    <row r="157" spans="1:14">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>2020</v>
       </c>
@@ -8881,7 +9053,7 @@
         <v>32.700000000000003</v>
       </c>
     </row>
-    <row r="158" spans="1:14">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>2020</v>
       </c>
@@ -8926,7 +9098,7 @@
         <v>37.4</v>
       </c>
     </row>
-    <row r="159" spans="1:14">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>2020</v>
       </c>
@@ -8971,7 +9143,7 @@
         <v>32.799999999999997</v>
       </c>
     </row>
-    <row r="160" spans="1:14">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>2020</v>
       </c>
@@ -9016,7 +9188,7 @@
         <v>29.1</v>
       </c>
     </row>
-    <row r="161" spans="1:14">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>2020</v>
       </c>
@@ -9061,7 +9233,7 @@
         <v>39.5</v>
       </c>
     </row>
-    <row r="162" spans="1:14">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>2020</v>
       </c>
@@ -9106,7 +9278,7 @@
         <v>45.1</v>
       </c>
     </row>
-    <row r="163" spans="1:14">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>2020</v>
       </c>
@@ -9151,7 +9323,7 @@
         <v>35.1</v>
       </c>
     </row>
-    <row r="164" spans="1:14">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>2020</v>
       </c>
@@ -9196,7 +9368,7 @@
         <v>34.9</v>
       </c>
     </row>
-    <row r="165" spans="1:14">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>2020</v>
       </c>
@@ -9241,7 +9413,7 @@
         <v>20.100000000000001</v>
       </c>
     </row>
-    <row r="166" spans="1:14">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>2020</v>
       </c>
@@ -9286,7 +9458,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="167" spans="1:14">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>2020</v>
       </c>
@@ -9331,7 +9503,7 @@
         <v>21.4</v>
       </c>
     </row>
-    <row r="168" spans="1:14">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>2020</v>
       </c>
@@ -9376,7 +9548,7 @@
         <v>25.7</v>
       </c>
     </row>
-    <row r="169" spans="1:14">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>2020</v>
       </c>
@@ -9421,7 +9593,7 @@
         <v>28.5</v>
       </c>
     </row>
-    <row r="170" spans="1:14">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>2020</v>
       </c>
@@ -9466,7 +9638,7 @@
         <v>26.1</v>
       </c>
     </row>
-    <row r="171" spans="1:14">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>2020</v>
       </c>
@@ -9511,7 +9683,7 @@
         <v>19.3</v>
       </c>
     </row>
-    <row r="172" spans="1:14">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>2020</v>
       </c>
@@ -9556,7 +9728,7 @@
         <v>28.1</v>
       </c>
     </row>
-    <row r="173" spans="1:14">
+    <row r="173" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>2020</v>
       </c>
@@ -9601,7 +9773,7 @@
         <v>25.1</v>
       </c>
     </row>
-    <row r="174" spans="1:14">
+    <row r="174" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>2020</v>
       </c>
@@ -9646,7 +9818,7 @@
         <v>20.3</v>
       </c>
     </row>
-    <row r="175" spans="1:14">
+    <row r="175" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>2020</v>
       </c>
@@ -9691,7 +9863,7 @@
         <v>19.8</v>
       </c>
     </row>
-    <row r="176" spans="1:14">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>2020</v>
       </c>
@@ -9736,7 +9908,7 @@
         <v>20.2</v>
       </c>
     </row>
-    <row r="177" spans="1:14">
+    <row r="177" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>2020</v>
       </c>
@@ -9781,7 +9953,7 @@
         <v>24.2</v>
       </c>
     </row>
-    <row r="178" spans="1:14">
+    <row r="178" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>2020</v>
       </c>
@@ -9826,7 +9998,7 @@
         <v>22.3</v>
       </c>
     </row>
-    <row r="179" spans="1:14">
+    <row r="179" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>2020</v>
       </c>
@@ -9871,7 +10043,7 @@
         <v>21.7</v>
       </c>
     </row>
-    <row r="180" spans="1:14">
+    <row r="180" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>2020</v>
       </c>
@@ -9916,7 +10088,7 @@
         <v>17.7</v>
       </c>
     </row>
-    <row r="181" spans="1:14">
+    <row r="181" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>2020</v>
       </c>
@@ -9961,7 +10133,7 @@
         <v>24.1</v>
       </c>
     </row>
-    <row r="182" spans="1:14">
+    <row r="182" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>2020</v>
       </c>
@@ -10006,7 +10178,7 @@
         <v>21.9</v>
       </c>
     </row>
-    <row r="183" spans="1:14">
+    <row r="183" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>2020</v>
       </c>
@@ -10051,7 +10223,7 @@
         <v>23.6</v>
       </c>
     </row>
-    <row r="184" spans="1:14">
+    <row r="184" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>2020</v>
       </c>
@@ -10096,7 +10268,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="185" spans="1:14">
+    <row r="185" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>2020</v>
       </c>
@@ -10141,7 +10313,7 @@
         <v>16.3</v>
       </c>
     </row>
-    <row r="186" spans="1:14">
+    <row r="186" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>2020</v>
       </c>
@@ -10186,7 +10358,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="187" spans="1:14">
+    <row r="187" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>2020</v>
       </c>
@@ -10231,7 +10403,7 @@
         <v>17.7</v>
       </c>
     </row>
-    <row r="188" spans="1:14">
+    <row r="188" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>2020</v>
       </c>
@@ -10276,7 +10448,7 @@
         <v>16.600000000000001</v>
       </c>
     </row>
-    <row r="189" spans="1:14">
+    <row r="189" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>2020</v>
       </c>
@@ -10321,7 +10493,7 @@
         <v>16.2</v>
       </c>
     </row>
-    <row r="190" spans="1:14">
+    <row r="190" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>2020</v>
       </c>
@@ -10366,7 +10538,7 @@
         <v>18.600000000000001</v>
       </c>
     </row>
-    <row r="191" spans="1:14">
+    <row r="191" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>2020</v>
       </c>
@@ -10411,7 +10583,7 @@
         <v>17.7</v>
       </c>
     </row>
-    <row r="192" spans="1:14">
+    <row r="192" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>2021</v>
       </c>
@@ -10456,7 +10628,7 @@
         <v>55.4</v>
       </c>
     </row>
-    <row r="193" spans="1:14">
+    <row r="193" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>2021</v>
       </c>
@@ -10501,7 +10673,7 @@
         <v>34.4</v>
       </c>
     </row>
-    <row r="194" spans="1:14">
+    <row r="194" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>2021</v>
       </c>
@@ -10546,7 +10718,7 @@
         <v>39.299999999999997</v>
       </c>
     </row>
-    <row r="195" spans="1:14">
+    <row r="195" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>2021</v>
       </c>
@@ -10591,7 +10763,7 @@
         <v>30.7</v>
       </c>
     </row>
-    <row r="196" spans="1:14">
+    <row r="196" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>2021</v>
       </c>
@@ -10636,7 +10808,7 @@
         <v>44.8</v>
       </c>
     </row>
-    <row r="197" spans="1:14">
+    <row r="197" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>2021</v>
       </c>
@@ -10681,7 +10853,7 @@
         <v>39.6</v>
       </c>
     </row>
-    <row r="198" spans="1:14">
+    <row r="198" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>2021</v>
       </c>
@@ -10726,7 +10898,7 @@
         <v>33.4</v>
       </c>
     </row>
-    <row r="199" spans="1:14">
+    <row r="199" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>2021</v>
       </c>
@@ -10771,7 +10943,7 @@
         <v>35.6</v>
       </c>
     </row>
-    <row r="200" spans="1:14">
+    <row r="200" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>2021</v>
       </c>
@@ -10816,7 +10988,7 @@
         <v>35.5</v>
       </c>
     </row>
-    <row r="201" spans="1:14">
+    <row r="201" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>2021</v>
       </c>
@@ -10861,7 +11033,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="202" spans="1:14">
+    <row r="202" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>2021</v>
       </c>
@@ -10906,7 +11078,7 @@
         <v>27.9</v>
       </c>
     </row>
-    <row r="203" spans="1:14">
+    <row r="203" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>2021</v>
       </c>
@@ -10951,7 +11123,7 @@
         <v>26.9</v>
       </c>
     </row>
-    <row r="204" spans="1:14">
+    <row r="204" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>2021</v>
       </c>
@@ -10996,7 +11168,7 @@
         <v>27.8</v>
       </c>
     </row>
-    <row r="205" spans="1:14">
+    <row r="205" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>2021</v>
       </c>
@@ -11041,7 +11213,7 @@
         <v>27.4</v>
       </c>
     </row>
-    <row r="206" spans="1:14">
+    <row r="206" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>2021</v>
       </c>
@@ -11086,7 +11258,7 @@
         <v>30.2</v>
       </c>
     </row>
-    <row r="207" spans="1:14">
+    <row r="207" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>2021</v>
       </c>
@@ -11131,7 +11303,7 @@
         <v>25.5</v>
       </c>
     </row>
-    <row r="208" spans="1:14">
+    <row r="208" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>2021</v>
       </c>
@@ -11176,7 +11348,7 @@
         <v>19.899999999999999</v>
       </c>
     </row>
-    <row r="209" spans="1:14">
+    <row r="209" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>2021</v>
       </c>
@@ -11221,7 +11393,7 @@
         <v>28.3</v>
       </c>
     </row>
-    <row r="210" spans="1:14">
+    <row r="210" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>2021</v>
       </c>
@@ -11266,7 +11438,7 @@
         <v>20.2</v>
       </c>
     </row>
-    <row r="211" spans="1:14">
+    <row r="211" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>2021</v>
       </c>
@@ -11311,7 +11483,7 @@
         <v>24.6</v>
       </c>
     </row>
-    <row r="212" spans="1:14">
+    <row r="212" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>2021</v>
       </c>
@@ -11356,7 +11528,7 @@
         <v>26.3</v>
       </c>
     </row>
-    <row r="213" spans="1:14">
+    <row r="213" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>2021</v>
       </c>
@@ -11401,7 +11573,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="214" spans="1:14">
+    <row r="214" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>2021</v>
       </c>
@@ -11446,7 +11618,7 @@
         <v>21.9</v>
       </c>
     </row>
-    <row r="215" spans="1:14">
+    <row r="215" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>2021</v>
       </c>
@@ -11491,7 +11663,7 @@
         <v>18.8</v>
       </c>
     </row>
-    <row r="216" spans="1:14">
+    <row r="216" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>2021</v>
       </c>
@@ -11536,7 +11708,7 @@
         <v>22.7</v>
       </c>
     </row>
-    <row r="217" spans="1:14">
+    <row r="217" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>2021</v>
       </c>
@@ -11581,7 +11753,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="218" spans="1:14">
+    <row r="218" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>2021</v>
       </c>
@@ -11626,7 +11798,7 @@
         <v>17.600000000000001</v>
       </c>
     </row>
-    <row r="219" spans="1:14">
+    <row r="219" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>2021</v>
       </c>
@@ -11671,7 +11843,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="220" spans="1:14">
+    <row r="220" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>2021</v>
       </c>
@@ -11716,7 +11888,7 @@
         <v>23.7</v>
       </c>
     </row>
-    <row r="221" spans="1:14">
+    <row r="221" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>2021</v>
       </c>
@@ -11761,7 +11933,7 @@
         <v>18.7</v>
       </c>
     </row>
-    <row r="222" spans="1:14">
+    <row r="222" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>2021</v>
       </c>
@@ -11806,7 +11978,7 @@
         <v>21.3</v>
       </c>
     </row>
-    <row r="223" spans="1:14">
+    <row r="223" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>2021</v>
       </c>
@@ -11851,7 +12023,7 @@
         <v>17.3</v>
       </c>
     </row>
-    <row r="224" spans="1:14">
+    <row r="224" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>2021</v>
       </c>
@@ -11896,7 +12068,7 @@
         <v>22.9</v>
       </c>
     </row>
-    <row r="225" spans="1:14">
+    <row r="225" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>2021</v>
       </c>
@@ -11941,7 +12113,7 @@
         <v>17.399999999999999</v>
       </c>
     </row>
-    <row r="226" spans="1:14">
+    <row r="226" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>2021</v>
       </c>
@@ -11986,7 +12158,7 @@
         <v>16.600000000000001</v>
       </c>
     </row>
-    <row r="227" spans="1:14">
+    <row r="227" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>2021</v>
       </c>
@@ -12031,7 +12203,7 @@
         <v>18.899999999999999</v>
       </c>
     </row>
-    <row r="228" spans="1:14">
+    <row r="228" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>2021</v>
       </c>
@@ -12076,7 +12248,7 @@
         <v>17.8</v>
       </c>
     </row>
-    <row r="229" spans="1:14">
+    <row r="229" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>2021</v>
       </c>
@@ -12121,7 +12293,7 @@
         <v>23.9</v>
       </c>
     </row>
-    <row r="230" spans="1:14">
+    <row r="230" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>2022</v>
       </c>
@@ -12163,7 +12335,7 @@
         <v>86.2</v>
       </c>
     </row>
-    <row r="231" spans="1:14">
+    <row r="231" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>2022</v>
       </c>
@@ -12205,7 +12377,7 @@
         <v>90.3</v>
       </c>
     </row>
-    <row r="232" spans="1:14">
+    <row r="232" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>2022</v>
       </c>
@@ -12247,7 +12419,7 @@
         <v>73.5</v>
       </c>
     </row>
-    <row r="233" spans="1:14">
+    <row r="233" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>2022</v>
       </c>
@@ -12289,7 +12461,7 @@
         <v>67.5</v>
       </c>
     </row>
-    <row r="234" spans="1:14">
+    <row r="234" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>2022</v>
       </c>
@@ -12331,7 +12503,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="235" spans="1:14">
+    <row r="235" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>2022</v>
       </c>
@@ -12373,7 +12545,7 @@
         <v>84.8</v>
       </c>
     </row>
-    <row r="236" spans="1:14">
+    <row r="236" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>2022</v>
       </c>
@@ -12415,7 +12587,7 @@
         <v>58.8</v>
       </c>
     </row>
-    <row r="237" spans="1:14">
+    <row r="237" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>2022</v>
       </c>
@@ -12457,7 +12629,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="238" spans="1:14">
+    <row r="238" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>2022</v>
       </c>
@@ -12499,7 +12671,7 @@
         <v>54.5</v>
       </c>
     </row>
-    <row r="239" spans="1:14">
+    <row r="239" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>2022</v>
       </c>
@@ -12541,7 +12713,7 @@
         <v>68.099999999999994</v>
       </c>
     </row>
-    <row r="240" spans="1:14">
+    <row r="240" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>2022</v>
       </c>
@@ -12583,7 +12755,7 @@
         <v>69.8</v>
       </c>
     </row>
-    <row r="241" spans="1:14">
+    <row r="241" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>2022</v>
       </c>
@@ -12625,7 +12797,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="242" spans="1:14">
+    <row r="242" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>2022</v>
       </c>
@@ -12667,7 +12839,7 @@
         <v>65.7</v>
       </c>
     </row>
-    <row r="243" spans="1:14">
+    <row r="243" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>2022</v>
       </c>
@@ -12709,7 +12881,7 @@
         <v>68.2</v>
       </c>
     </row>
-    <row r="244" spans="1:14">
+    <row r="244" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>2022</v>
       </c>
@@ -12751,7 +12923,7 @@
         <v>48.9</v>
       </c>
     </row>
-    <row r="245" spans="1:14">
+    <row r="245" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>2022</v>
       </c>
@@ -12793,7 +12965,7 @@
         <v>64.7</v>
       </c>
     </row>
-    <row r="246" spans="1:14">
+    <row r="246" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>2022</v>
       </c>
@@ -12835,7 +13007,7 @@
         <v>57.3</v>
       </c>
     </row>
-    <row r="247" spans="1:14">
+    <row r="247" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>2022</v>
       </c>
@@ -12877,7 +13049,7 @@
         <v>59.1</v>
       </c>
     </row>
-    <row r="248" spans="1:14">
+    <row r="248" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>2022</v>
       </c>
@@ -12919,7 +13091,7 @@
         <v>33.6</v>
       </c>
     </row>
-    <row r="249" spans="1:14">
+    <row r="249" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>2022</v>
       </c>
@@ -12961,7 +13133,7 @@
         <v>44.6</v>
       </c>
     </row>
-    <row r="250" spans="1:14">
+    <row r="250" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>2022</v>
       </c>
@@ -13006,7 +13178,7 @@
         <v>54.5</v>
       </c>
     </row>
-    <row r="251" spans="1:14">
+    <row r="251" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>2022</v>
       </c>
@@ -13048,7 +13220,7 @@
         <v>58.1</v>
       </c>
     </row>
-    <row r="252" spans="1:14">
+    <row r="252" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>2022</v>
       </c>
@@ -13090,7 +13262,7 @@
         <v>59.5</v>
       </c>
     </row>
-    <row r="253" spans="1:14">
+    <row r="253" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>2022</v>
       </c>
@@ -13132,7 +13304,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="254" spans="1:14">
+    <row r="254" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>2022</v>
       </c>
@@ -13174,7 +13346,7 @@
         <v>46.4</v>
       </c>
     </row>
-    <row r="255" spans="1:14">
+    <row r="255" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>2022</v>
       </c>
@@ -13216,7 +13388,7 @@
         <v>41.2</v>
       </c>
     </row>
-    <row r="256" spans="1:14">
+    <row r="256" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>2022</v>
       </c>
@@ -13258,7 +13430,7 @@
         <v>51.6</v>
       </c>
     </row>
-    <row r="257" spans="1:14">
+    <row r="257" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>2022</v>
       </c>
@@ -13300,7 +13472,7 @@
         <v>41.2</v>
       </c>
     </row>
-    <row r="258" spans="1:14">
+    <row r="258" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>2022</v>
       </c>
@@ -13345,7 +13517,7 @@
         <v>54.9</v>
       </c>
     </row>
-    <row r="259" spans="1:14">
+    <row r="259" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>2022</v>
       </c>
@@ -13387,7 +13559,7 @@
         <v>44.9</v>
       </c>
     </row>
-    <row r="260" spans="1:14">
+    <row r="260" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>2022</v>
       </c>
@@ -13429,7 +13601,7 @@
         <v>41.5</v>
       </c>
     </row>
-    <row r="261" spans="1:14">
+    <row r="261" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>2022</v>
       </c>
@@ -13471,7 +13643,7 @@
         <v>59.2</v>
       </c>
     </row>
-    <row r="262" spans="1:14">
+    <row r="262" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>2022</v>
       </c>
@@ -13513,7 +13685,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="263" spans="1:14">
+    <row r="263" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>2022</v>
       </c>
@@ -13555,7 +13727,7 @@
         <v>24.1</v>
       </c>
     </row>
-    <row r="264" spans="1:14">
+    <row r="264" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>2022</v>
       </c>
@@ -13600,7 +13772,7 @@
         <v>28.2</v>
       </c>
     </row>
-    <row r="265" spans="1:14">
+    <row r="265" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>2022</v>
       </c>
@@ -13642,7 +13814,7 @@
         <v>35.799999999999997</v>
       </c>
     </row>
-    <row r="266" spans="1:14">
+    <row r="266" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>2022</v>
       </c>
@@ -13684,7 +13856,7 @@
         <v>36.6</v>
       </c>
     </row>
-    <row r="267" spans="1:14">
+    <row r="267" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>2022</v>
       </c>
@@ -13726,7 +13898,7 @@
         <v>44.3</v>
       </c>
     </row>
-    <row r="268" spans="1:14">
+    <row r="268" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>2022</v>
       </c>
@@ -13768,7 +13940,7 @@
         <v>37.700000000000003</v>
       </c>
     </row>
-    <row r="269" spans="1:14">
+    <row r="269" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>2022</v>
       </c>
@@ -13810,7 +13982,7 @@
         <v>50.8</v>
       </c>
     </row>
-    <row r="270" spans="1:14">
+    <row r="270" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>2022</v>
       </c>
@@ -13852,7 +14024,7 @@
         <v>30.1</v>
       </c>
     </row>
-    <row r="271" spans="1:14">
+    <row r="271" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>2022</v>
       </c>
@@ -13894,7 +14066,7 @@
         <v>64.099999999999994</v>
       </c>
     </row>
-    <row r="272" spans="1:14">
+    <row r="272" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>2022</v>
       </c>
@@ -13936,7 +14108,7 @@
         <v>44.2</v>
       </c>
     </row>
-    <row r="273" spans="1:14">
+    <row r="273" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>2022</v>
       </c>
@@ -13978,7 +14150,7 @@
         <v>30.9</v>
       </c>
     </row>
-    <row r="274" spans="1:14">
+    <row r="274" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>2022</v>
       </c>
@@ -14023,7 +14195,7 @@
         <v>49.1</v>
       </c>
     </row>
-    <row r="275" spans="1:14">
+    <row r="275" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>2022</v>
       </c>
@@ -14065,7 +14237,7 @@
         <v>30.9</v>
       </c>
     </row>
-    <row r="276" spans="1:14">
+    <row r="276" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>2022</v>
       </c>
@@ -14107,7 +14279,7 @@
         <v>46.9</v>
       </c>
     </row>
-    <row r="277" spans="1:14">
+    <row r="277" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>2022</v>
       </c>
@@ -14149,7 +14321,7 @@
         <v>30.3</v>
       </c>
     </row>
-    <row r="278" spans="1:14">
+    <row r="278" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>2022</v>
       </c>
@@ -14191,7 +14363,7 @@
         <v>51.6</v>
       </c>
     </row>
-    <row r="279" spans="1:14">
+    <row r="279" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>2022</v>
       </c>
@@ -14233,7 +14405,7 @@
         <v>47.3</v>
       </c>
     </row>
-    <row r="280" spans="1:14">
+    <row r="280" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>2022</v>
       </c>
@@ -14275,7 +14447,7 @@
         <v>31.2</v>
       </c>
     </row>
-    <row r="281" spans="1:14">
+    <row r="281" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>2022</v>
       </c>
@@ -14317,7 +14489,7 @@
         <v>42.6</v>
       </c>
     </row>
-    <row r="282" spans="1:14">
+    <row r="282" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>2022</v>
       </c>
@@ -14359,7 +14531,7 @@
         <v>53.3</v>
       </c>
     </row>
-    <row r="283" spans="1:14">
+    <row r="283" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>2022</v>
       </c>
@@ -14401,7 +14573,7 @@
         <v>25.3</v>
       </c>
     </row>
-    <row r="284" spans="1:14">
+    <row r="284" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>2022</v>
       </c>
@@ -14443,7 +14615,7 @@
         <v>41.4</v>
       </c>
     </row>
-    <row r="285" spans="1:14">
+    <row r="285" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>2022</v>
       </c>
@@ -14485,7 +14657,7 @@
         <v>41.9</v>
       </c>
     </row>
-    <row r="286" spans="1:14">
+    <row r="286" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>2022</v>
       </c>
@@ -14527,7 +14699,7 @@
         <v>27.8</v>
       </c>
     </row>
-    <row r="287" spans="1:14">
+    <row r="287" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>2022</v>
       </c>
@@ -14569,7 +14741,7 @@
         <v>47.3</v>
       </c>
     </row>
-    <row r="288" spans="1:14">
+    <row r="288" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>2022</v>
       </c>
@@ -14614,7 +14786,7 @@
         <v>38.700000000000003</v>
       </c>
     </row>
-    <row r="289" spans="1:14">
+    <row r="289" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>2022</v>
       </c>
@@ -14656,7 +14828,7 @@
         <v>29.2</v>
       </c>
     </row>
-    <row r="290" spans="1:14">
+    <row r="290" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>2022</v>
       </c>
@@ -14698,7 +14870,7 @@
         <v>30.7</v>
       </c>
     </row>
-    <row r="291" spans="1:14">
+    <row r="291" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>2022</v>
       </c>
@@ -14740,7 +14912,7 @@
         <v>28.4</v>
       </c>
     </row>
-    <row r="292" spans="1:14">
+    <row r="292" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>2022</v>
       </c>
@@ -14782,7 +14954,7 @@
         <v>39.700000000000003</v>
       </c>
     </row>
-    <row r="293" spans="1:14">
+    <row r="293" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>2022</v>
       </c>
@@ -14824,7 +14996,7 @@
         <v>41.1</v>
       </c>
     </row>
-    <row r="294" spans="1:14">
+    <row r="294" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>2022</v>
       </c>
@@ -14866,7 +15038,7 @@
         <v>39.299999999999997</v>
       </c>
     </row>
-    <row r="295" spans="1:14">
+    <row r="295" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>2022</v>
       </c>
@@ -14908,7 +15080,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="296" spans="1:14">
+    <row r="296" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>2022</v>
       </c>
@@ -14950,7 +15122,7 @@
         <v>21.7</v>
       </c>
     </row>
-    <row r="297" spans="1:14">
+    <row r="297" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>2022</v>
       </c>
@@ -14992,7 +15164,7 @@
         <v>31.7</v>
       </c>
     </row>
-    <row r="298" spans="1:14">
+    <row r="298" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>2022</v>
       </c>
@@ -15034,7 +15206,7 @@
         <v>48.6</v>
       </c>
     </row>
-    <row r="299" spans="1:14">
+    <row r="299" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>2022</v>
       </c>
@@ -15076,7 +15248,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="300" spans="1:14">
+    <row r="300" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>2022</v>
       </c>
@@ -15118,7 +15290,7 @@
         <v>43.8</v>
       </c>
     </row>
-    <row r="301" spans="1:14">
+    <row r="301" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>2022</v>
       </c>
@@ -15160,7 +15332,7 @@
         <v>23.9</v>
       </c>
     </row>
-    <row r="302" spans="1:14">
+    <row r="302" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>2022</v>
       </c>
@@ -15202,7 +15374,7 @@
         <v>16.899999999999999</v>
       </c>
     </row>
-    <row r="303" spans="1:14">
+    <row r="303" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>2022</v>
       </c>
@@ -15244,7 +15416,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="304" spans="1:14">
+    <row r="304" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>2022</v>
       </c>
@@ -15286,7 +15458,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="305" spans="1:14">
+    <row r="305" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>2022</v>
       </c>
@@ -15328,7 +15500,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="306" spans="1:14">
+    <row r="306" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>2022</v>
       </c>
@@ -15370,7 +15542,7 @@
         <v>41.6</v>
       </c>
     </row>
-    <row r="307" spans="1:14">
+    <row r="307" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>2022</v>
       </c>
@@ -15415,7 +15587,7 @@
         <v>22.7</v>
       </c>
     </row>
-    <row r="308" spans="1:14">
+    <row r="308" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>2022</v>
       </c>
@@ -15457,7 +15629,7 @@
         <v>19.5</v>
       </c>
     </row>
-    <row r="309" spans="1:14">
+    <row r="309" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>2022</v>
       </c>
@@ -15499,7 +15671,7 @@
         <v>30.6</v>
       </c>
     </row>
-    <row r="310" spans="1:14">
+    <row r="310" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>2022</v>
       </c>
@@ -15541,7 +15713,7 @@
         <v>49.3</v>
       </c>
     </row>
-    <row r="311" spans="1:14">
+    <row r="311" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>2022</v>
       </c>
@@ -15583,7 +15755,7 @@
         <v>37.6</v>
       </c>
     </row>
-    <row r="312" spans="1:14">
+    <row r="312" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>2022</v>
       </c>
@@ -15625,7 +15797,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="313" spans="1:14">
+    <row r="313" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>2022</v>
       </c>
@@ -15667,7 +15839,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="314" spans="1:14">
+    <row r="314" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>2022</v>
       </c>
@@ -15709,7 +15881,7 @@
         <v>32.5</v>
       </c>
     </row>
-    <row r="315" spans="1:14">
+    <row r="315" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>2022</v>
       </c>
@@ -15751,7 +15923,7 @@
         <v>33.799999999999997</v>
       </c>
     </row>
-    <row r="316" spans="1:14">
+    <row r="316" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>2022</v>
       </c>
@@ -15793,7 +15965,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="317" spans="1:14">
+    <row r="317" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>2022</v>
       </c>
@@ -15835,7 +16007,7 @@
         <v>33.200000000000003</v>
       </c>
     </row>
-    <row r="318" spans="1:14">
+    <row r="318" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>2022</v>
       </c>
@@ -15877,7 +16049,7 @@
         <v>15.8</v>
       </c>
     </row>
-    <row r="319" spans="1:14">
+    <row r="319" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>2022</v>
       </c>
@@ -15919,7 +16091,7 @@
         <v>37.4</v>
       </c>
     </row>
-    <row r="320" spans="1:14">
+    <row r="320" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>2022</v>
       </c>
@@ -15961,7 +16133,7 @@
         <v>15.7</v>
       </c>
     </row>
-    <row r="321" spans="1:14">
+    <row r="321" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>2022</v>
       </c>
@@ -16003,7 +16175,7 @@
         <v>33.799999999999997</v>
       </c>
     </row>
-    <row r="322" spans="1:14">
+    <row r="322" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>2022</v>
       </c>
@@ -16045,7 +16217,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="323" spans="1:14">
+    <row r="323" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>2022</v>
       </c>
@@ -16087,7 +16259,7 @@
         <v>31.4</v>
       </c>
     </row>
-    <row r="324" spans="1:14">
+    <row r="324" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>2022</v>
       </c>
@@ -16129,7 +16301,7 @@
         <v>34.200000000000003</v>
       </c>
     </row>
-    <row r="325" spans="1:14">
+    <row r="325" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>2022</v>
       </c>
@@ -16171,7 +16343,7 @@
         <v>37.1</v>
       </c>
     </row>
-    <row r="326" spans="1:14">
+    <row r="326" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>2022</v>
       </c>
@@ -16213,7 +16385,7 @@
         <v>18.8</v>
       </c>
     </row>
-    <row r="327" spans="1:14">
+    <row r="327" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>2022</v>
       </c>
@@ -16255,7 +16427,7 @@
         <v>38.4</v>
       </c>
     </row>
-    <row r="328" spans="1:14">
+    <row r="328" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>2022</v>
       </c>
@@ -16297,7 +16469,7 @@
         <v>36.200000000000003</v>
       </c>
     </row>
-    <row r="329" spans="1:14">
+    <row r="329" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>2022</v>
       </c>
@@ -16339,7 +16511,7 @@
         <v>21.1</v>
       </c>
     </row>
-    <row r="330" spans="1:14">
+    <row r="330" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>2022</v>
       </c>
@@ -16381,7 +16553,7 @@
         <v>19.600000000000001</v>
       </c>
     </row>
-    <row r="331" spans="1:14">
+    <row r="331" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>2022</v>
       </c>
@@ -16423,7 +16595,7 @@
         <v>46.5</v>
       </c>
     </row>
-    <row r="332" spans="1:14">
+    <row r="332" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>2022</v>
       </c>
@@ -16465,7 +16637,7 @@
         <v>24.5</v>
       </c>
     </row>
-    <row r="333" spans="1:14">
+    <row r="333" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>2022</v>
       </c>
@@ -16507,7 +16679,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="334" spans="1:14">
+    <row r="334" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>2022</v>
       </c>
@@ -16549,7 +16721,7 @@
         <v>35.700000000000003</v>
       </c>
     </row>
-    <row r="335" spans="1:14">
+    <row r="335" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>2022</v>
       </c>
@@ -16591,7 +16763,7 @@
         <v>26.6</v>
       </c>
     </row>
-    <row r="336" spans="1:14">
+    <row r="336" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>2022</v>
       </c>
@@ -16633,7 +16805,7 @@
         <v>44.7</v>
       </c>
     </row>
-    <row r="337" spans="1:14">
+    <row r="337" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>2022</v>
       </c>
@@ -16675,7 +16847,7 @@
         <v>52.1</v>
       </c>
     </row>
-    <row r="338" spans="1:14">
+    <row r="338" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>2022</v>
       </c>
@@ -16717,7 +16889,7 @@
         <v>54.9</v>
       </c>
     </row>
-    <row r="339" spans="1:14">
+    <row r="339" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>2022</v>
       </c>
@@ -16759,7 +16931,7 @@
         <v>25.7</v>
       </c>
     </row>
-    <row r="340" spans="1:14">
+    <row r="340" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>2022</v>
       </c>
@@ -16801,7 +16973,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="341" spans="1:14">
+    <row r="341" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>2022</v>
       </c>
@@ -16846,7 +17018,7 @@
         <v>39.200000000000003</v>
       </c>
     </row>
-    <row r="342" spans="1:14">
+    <row r="342" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>2022</v>
       </c>
@@ -16888,7 +17060,7 @@
         <v>33.200000000000003</v>
       </c>
     </row>
-    <row r="343" spans="1:14">
+    <row r="343" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>2022</v>
       </c>
@@ -16930,7 +17102,7 @@
         <v>27.2</v>
       </c>
     </row>
-    <row r="344" spans="1:14">
+    <row r="344" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>2022</v>
       </c>
@@ -16972,7 +17144,7 @@
         <v>41.2</v>
       </c>
     </row>
-    <row r="345" spans="1:14">
+    <row r="345" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>2022</v>
       </c>
@@ -17014,7 +17186,7 @@
         <v>30.9</v>
       </c>
     </row>
-    <row r="346" spans="1:14">
+    <row r="346" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>2022</v>
       </c>
@@ -17056,7 +17228,7 @@
         <v>32.299999999999997</v>
       </c>
     </row>
-    <row r="347" spans="1:14">
+    <row r="347" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>2022</v>
       </c>
@@ -17101,7 +17273,7 @@
         <v>32.4</v>
       </c>
     </row>
-    <row r="348" spans="1:14">
+    <row r="348" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>2022</v>
       </c>
@@ -17143,7 +17315,7 @@
         <v>46.6</v>
       </c>
     </row>
-    <row r="349" spans="1:14">
+    <row r="349" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>2022</v>
       </c>
@@ -17185,7 +17357,7 @@
         <v>34.5</v>
       </c>
     </row>
-    <row r="350" spans="1:14">
+    <row r="350" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>2022</v>
       </c>
@@ -17227,7 +17399,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="351" spans="1:14">
+    <row r="351" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>2022</v>
       </c>
@@ -17269,7 +17441,7 @@
         <v>41.2</v>
       </c>
     </row>
-    <row r="352" spans="1:14">
+    <row r="352" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>2022</v>
       </c>
@@ -17311,7 +17483,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="353" spans="1:14">
+    <row r="353" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>2022</v>
       </c>
@@ -17356,7 +17528,7 @@
         <v>35.4</v>
       </c>
     </row>
-    <row r="354" spans="1:14">
+    <row r="354" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>2022</v>
       </c>
@@ -17398,7 +17570,7 @@
         <v>28.2</v>
       </c>
     </row>
-    <row r="355" spans="1:14">
+    <row r="355" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>2022</v>
       </c>
@@ -17440,7 +17612,7 @@
         <v>24.9</v>
       </c>
     </row>
-    <row r="356" spans="1:14">
+    <row r="356" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>2022</v>
       </c>
@@ -17482,7 +17654,7 @@
         <v>36.200000000000003</v>
       </c>
     </row>
-    <row r="357" spans="1:14">
+    <row r="357" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>2022</v>
       </c>
@@ -17524,7 +17696,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="358" spans="1:14">
+    <row r="358" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>2022</v>
       </c>
@@ -17566,7 +17738,7 @@
         <v>26.1</v>
       </c>
     </row>
-    <row r="359" spans="1:14">
+    <row r="359" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>2022</v>
       </c>
@@ -17608,7 +17780,7 @@
         <v>39.1</v>
       </c>
     </row>
-    <row r="360" spans="1:14">
+    <row r="360" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>2022</v>
       </c>
@@ -17650,7 +17822,7 @@
         <v>29.4</v>
       </c>
     </row>
-    <row r="361" spans="1:14">
+    <row r="361" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>2022</v>
       </c>
@@ -17692,7 +17864,7 @@
         <v>25.2</v>
       </c>
     </row>
-    <row r="362" spans="1:14">
+    <row r="362" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>2022</v>
       </c>
@@ -17734,7 +17906,7 @@
         <v>35.700000000000003</v>
       </c>
     </row>
-    <row r="363" spans="1:14">
+    <row r="363" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A363">
         <v>2022</v>
       </c>
@@ -17776,7 +17948,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="364" spans="1:14">
+    <row r="364" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A364">
         <v>2022</v>
       </c>
@@ -17818,7 +17990,7 @@
         <v>57.3</v>
       </c>
     </row>
-    <row r="365" spans="1:14">
+    <row r="365" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A365">
         <v>2022</v>
       </c>
@@ -17860,7 +18032,7 @@
         <v>33.799999999999997</v>
       </c>
     </row>
-    <row r="366" spans="1:14">
+    <row r="366" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A366">
         <v>2022</v>
       </c>
@@ -17902,7 +18074,7 @@
         <v>38.9</v>
       </c>
     </row>
-    <row r="367" spans="1:14">
+    <row r="367" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A367">
         <v>2022</v>
       </c>
@@ -17944,7 +18116,7 @@
         <v>43.8</v>
       </c>
     </row>
-    <row r="368" spans="1:14">
+    <row r="368" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A368">
         <v>2022</v>
       </c>
@@ -17986,7 +18158,7 @@
         <v>27.6</v>
       </c>
     </row>
-    <row r="369" spans="1:14">
+    <row r="369" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A369">
         <v>2022</v>
       </c>
@@ -18028,7 +18200,7 @@
         <v>50.3</v>
       </c>
     </row>
-    <row r="370" spans="1:14">
+    <row r="370" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A370">
         <v>2022</v>
       </c>
@@ -18070,7 +18242,7 @@
         <v>32.5</v>
       </c>
     </row>
-    <row r="371" spans="1:14">
+    <row r="371" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A371">
         <v>2022</v>
       </c>
@@ -18112,7 +18284,7 @@
         <v>30.2</v>
       </c>
     </row>
-    <row r="372" spans="1:14">
+    <row r="372" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A372">
         <v>2022</v>
       </c>
@@ -18154,7 +18326,7 @@
         <v>38.799999999999997</v>
       </c>
     </row>
-    <row r="373" spans="1:14">
+    <row r="373" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A373">
         <v>2022</v>
       </c>
@@ -18196,7 +18368,7 @@
         <v>21.1</v>
       </c>
     </row>
-    <row r="374" spans="1:14">
+    <row r="374" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A374">
         <v>2022</v>
       </c>
@@ -18238,7 +18410,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="375" spans="1:14">
+    <row r="375" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A375">
         <v>2022</v>
       </c>
@@ -18280,7 +18452,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="376" spans="1:14">
+    <row r="376" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A376">
         <v>2022</v>
       </c>
@@ -18322,7 +18494,7 @@
         <v>51.4</v>
       </c>
     </row>
-    <row r="377" spans="1:14">
+    <row r="377" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A377">
         <v>2022</v>
       </c>
@@ -18364,7 +18536,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="378" spans="1:14">
+    <row r="378" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A378">
         <v>2022</v>
       </c>
@@ -18406,7 +18578,7 @@
         <v>17.3</v>
       </c>
     </row>
-    <row r="379" spans="1:14">
+    <row r="379" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A379">
         <v>2022</v>
       </c>
@@ -18448,7 +18620,7 @@
         <v>20.2</v>
       </c>
     </row>
-    <row r="380" spans="1:14">
+    <row r="380" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A380">
         <v>2022</v>
       </c>
@@ -18490,7 +18662,7 @@
         <v>33.6</v>
       </c>
     </row>
-    <row r="381" spans="1:14">
+    <row r="381" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A381">
         <v>2022</v>
       </c>
@@ -18532,7 +18704,7 @@
         <v>38.6</v>
       </c>
     </row>
-    <row r="382" spans="1:14">
+    <row r="382" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A382">
         <v>2022</v>
       </c>
@@ -18574,7 +18746,7 @@
         <v>41.1</v>
       </c>
     </row>
-    <row r="383" spans="1:14">
+    <row r="383" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A383">
         <v>2022</v>
       </c>
@@ -18616,7 +18788,7 @@
         <v>21.2</v>
       </c>
     </row>
-    <row r="384" spans="1:14">
+    <row r="384" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A384">
         <v>2022</v>
       </c>
@@ -18658,7 +18830,7 @@
         <v>18.100000000000001</v>
       </c>
     </row>
-    <row r="385" spans="1:14">
+    <row r="385" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A385">
         <v>2022</v>
       </c>
@@ -18700,7 +18872,7 @@
         <v>45.3</v>
       </c>
     </row>
-    <row r="386" spans="1:14">
+    <row r="386" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A386">
         <v>2022</v>
       </c>
@@ -18742,7 +18914,7 @@
         <v>38.4</v>
       </c>
     </row>
-    <row r="387" spans="1:14">
+    <row r="387" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A387">
         <v>2022</v>
       </c>
@@ -18784,7 +18956,7 @@
         <v>43.7</v>
       </c>
     </row>
-    <row r="388" spans="1:14">
+    <row r="388" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A388">
         <v>2022</v>
       </c>
@@ -18826,7 +18998,7 @@
         <v>20.100000000000001</v>
       </c>
     </row>
-    <row r="389" spans="1:14">
+    <row r="389" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A389">
         <v>2022</v>
       </c>
@@ -18868,7 +19040,7 @@
         <v>37.700000000000003</v>
       </c>
     </row>
-    <row r="390" spans="1:14">
+    <row r="390" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A390">
         <v>2022</v>
       </c>
@@ -18910,7 +19082,7 @@
         <v>36.200000000000003</v>
       </c>
     </row>
-    <row r="391" spans="1:14">
+    <row r="391" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A391">
         <v>2022</v>
       </c>
@@ -18952,7 +19124,7 @@
         <v>27.2</v>
       </c>
     </row>
-    <row r="392" spans="1:14">
+    <row r="392" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A392">
         <v>2022</v>
       </c>
@@ -18994,7 +19166,7 @@
         <v>29.8</v>
       </c>
     </row>
-    <row r="393" spans="1:14">
+    <row r="393" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A393">
         <v>2022</v>
       </c>
@@ -19036,7 +19208,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="394" spans="1:14">
+    <row r="394" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A394">
         <v>2022</v>
       </c>
@@ -19078,7 +19250,7 @@
         <v>31.2</v>
       </c>
     </row>
-    <row r="395" spans="1:14">
+    <row r="395" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A395">
         <v>2022</v>
       </c>
@@ -19120,7 +19292,7 @@
         <v>17.399999999999999</v>
       </c>
     </row>
-    <row r="396" spans="1:14">
+    <row r="396" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A396">
         <v>2022</v>
       </c>
@@ -19162,7 +19334,7 @@
         <v>51.1</v>
       </c>
     </row>
-    <row r="397" spans="1:14">
+    <row r="397" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A397">
         <v>2022</v>
       </c>
@@ -19204,7 +19376,7 @@
         <v>26.9</v>
       </c>
     </row>
-    <row r="398" spans="1:14">
+    <row r="398" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A398">
         <v>2022</v>
       </c>
@@ -19246,7 +19418,7 @@
         <v>19.5</v>
       </c>
     </row>
-    <row r="399" spans="1:14">
+    <row r="399" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A399">
         <v>2022</v>
       </c>
@@ -19288,7 +19460,7 @@
         <v>28.1</v>
       </c>
     </row>
-    <row r="400" spans="1:14">
+    <row r="400" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A400">
         <v>2022</v>
       </c>
@@ -19330,7 +19502,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="401" spans="1:14">
+    <row r="401" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A401">
         <v>2022</v>
       </c>
@@ -19372,7 +19544,7 @@
         <v>35.200000000000003</v>
       </c>
     </row>
-    <row r="402" spans="1:14">
+    <row r="402" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A402">
         <v>2022</v>
       </c>
@@ -19414,7 +19586,7 @@
         <v>39.700000000000003</v>
       </c>
     </row>
-    <row r="403" spans="1:14">
+    <row r="403" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A403">
         <v>2022</v>
       </c>
@@ -19456,7 +19628,7 @@
         <v>19.5</v>
       </c>
     </row>
-    <row r="404" spans="1:14">
+    <row r="404" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A404">
         <v>2022</v>
       </c>
@@ -19498,7 +19670,7 @@
         <v>24.4</v>
       </c>
     </row>
-    <row r="405" spans="1:14">
+    <row r="405" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A405">
         <v>2022</v>
       </c>
@@ -19540,7 +19712,7 @@
         <v>19.600000000000001</v>
       </c>
     </row>
-    <row r="406" spans="1:14">
+    <row r="406" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A406">
         <v>2022</v>
       </c>
@@ -19582,7 +19754,7 @@
         <v>20.3</v>
       </c>
     </row>
-    <row r="407" spans="1:14">
+    <row r="407" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A407">
         <v>2022</v>
       </c>
@@ -19624,7 +19796,7 @@
         <v>30.7</v>
       </c>
     </row>
-    <row r="408" spans="1:14">
+    <row r="408" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A408">
         <v>2022</v>
       </c>
@@ -19666,7 +19838,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="409" spans="1:14">
+    <row r="409" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A409">
         <v>2022</v>
       </c>
@@ -19708,7 +19880,7 @@
         <v>29.6</v>
       </c>
     </row>
-    <row r="410" spans="1:14">
+    <row r="410" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A410">
         <v>2022</v>
       </c>
@@ -19753,7 +19925,7 @@
         <v>29.6</v>
       </c>
     </row>
-    <row r="411" spans="1:14">
+    <row r="411" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A411">
         <v>2022</v>
       </c>
@@ -19795,7 +19967,7 @@
         <v>32.4</v>
       </c>
     </row>
-    <row r="412" spans="1:14">
+    <row r="412" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A412">
         <v>2022</v>
       </c>
@@ -19837,7 +20009,7 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="413" spans="1:14">
+    <row r="413" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A413">
         <v>2022</v>
       </c>
@@ -19879,7 +20051,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="414" spans="1:14">
+    <row r="414" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A414">
         <v>2022</v>
       </c>
@@ -19921,7 +20093,7 @@
         <v>25.6</v>
       </c>
     </row>
-    <row r="415" spans="1:14">
+    <row r="415" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A415">
         <v>2022</v>
       </c>
@@ -19963,7 +20135,7 @@
         <v>49.3</v>
       </c>
     </row>
-    <row r="416" spans="1:14">
+    <row r="416" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A416">
         <v>2022</v>
       </c>
@@ -20005,7 +20177,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="417" spans="1:14">
+    <row r="417" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A417">
         <v>2022</v>
       </c>
@@ -20047,7 +20219,7 @@
         <v>24.4</v>
       </c>
     </row>
-    <row r="418" spans="1:14">
+    <row r="418" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A418">
         <v>2022</v>
       </c>
@@ -20089,7 +20261,7 @@
         <v>30.8</v>
       </c>
     </row>
-    <row r="419" spans="1:14">
+    <row r="419" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A419">
         <v>2022</v>
       </c>
@@ -20131,7 +20303,7 @@
         <v>29.7</v>
       </c>
     </row>
-    <row r="420" spans="1:14">
+    <row r="420" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A420">
         <v>2022</v>
       </c>
@@ -20173,7 +20345,7 @@
         <v>18.899999999999999</v>
       </c>
     </row>
-    <row r="421" spans="1:14">
+    <row r="421" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A421">
         <v>2022</v>
       </c>
@@ -20215,7 +20387,7 @@
         <v>33.9</v>
       </c>
     </row>
-    <row r="422" spans="1:14">
+    <row r="422" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A422">
         <v>2022</v>
       </c>
@@ -20257,7 +20429,7 @@
         <v>28.3</v>
       </c>
     </row>
-    <row r="423" spans="1:14">
+    <row r="423" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A423">
         <v>2022</v>
       </c>
@@ -20299,7 +20471,7 @@
         <v>25.5</v>
       </c>
     </row>
-    <row r="424" spans="1:14">
+    <row r="424" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A424">
         <v>2022</v>
       </c>
@@ -20341,7 +20513,7 @@
         <v>34.5</v>
       </c>
     </row>
-    <row r="425" spans="1:14">
+    <row r="425" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A425">
         <v>2022</v>
       </c>
@@ -20383,7 +20555,7 @@
         <v>31.7</v>
       </c>
     </row>
-    <row r="426" spans="1:14">
+    <row r="426" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A426">
         <v>2022</v>
       </c>
@@ -20425,7 +20597,7 @@
         <v>24.6</v>
       </c>
     </row>
-    <row r="427" spans="1:14">
+    <row r="427" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A427">
         <v>2022</v>
       </c>
@@ -20467,7 +20639,7 @@
         <v>24.4</v>
       </c>
     </row>
-    <row r="428" spans="1:14">
+    <row r="428" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A428">
         <v>2022</v>
       </c>
@@ -20509,7 +20681,7 @@
         <v>39.200000000000003</v>
       </c>
     </row>
-    <row r="429" spans="1:14">
+    <row r="429" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A429">
         <v>2022</v>
       </c>
@@ -20551,7 +20723,7 @@
         <v>30.7</v>
       </c>
     </row>
-    <row r="430" spans="1:14">
+    <row r="430" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A430">
         <v>2022</v>
       </c>
@@ -20593,7 +20765,7 @@
         <v>22.2</v>
       </c>
     </row>
-    <row r="431" spans="1:14">
+    <row r="431" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A431">
         <v>2022</v>
       </c>
@@ -20635,7 +20807,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="432" spans="1:14">
+    <row r="432" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A432">
         <v>2022</v>
       </c>
@@ -20677,7 +20849,7 @@
         <v>15.9</v>
       </c>
     </row>
-    <row r="433" spans="1:14">
+    <row r="433" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A433">
         <v>2022</v>
       </c>
@@ -20719,7 +20891,7 @@
         <v>35.6</v>
       </c>
     </row>
-    <row r="434" spans="1:14">
+    <row r="434" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A434">
         <v>2022</v>
       </c>
@@ -20761,7 +20933,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="435" spans="1:14">
+    <row r="435" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A435">
         <v>2022</v>
       </c>
@@ -20803,7 +20975,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="436" spans="1:14">
+    <row r="436" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A436">
         <v>2022</v>
       </c>
@@ -20845,7 +21017,7 @@
         <v>25.3</v>
       </c>
     </row>
-    <row r="437" spans="1:14">
+    <row r="437" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A437">
         <v>2022</v>
       </c>
@@ -20887,7 +21059,7 @@
         <v>23.1</v>
       </c>
     </row>
-    <row r="438" spans="1:14">
+    <row r="438" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A438">
         <v>2022</v>
       </c>
@@ -20929,7 +21101,7 @@
         <v>26.7</v>
       </c>
     </row>
-    <row r="439" spans="1:14">
+    <row r="439" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A439">
         <v>2022</v>
       </c>
@@ -20974,7 +21146,7 @@
         <v>26.8</v>
       </c>
     </row>
-    <row r="440" spans="1:14">
+    <row r="440" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A440">
         <v>2022</v>
       </c>
@@ -21016,7 +21188,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="441" spans="1:14">
+    <row r="441" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A441">
         <v>2022</v>
       </c>
@@ -21058,7 +21230,7 @@
         <v>35.5</v>
       </c>
     </row>
-    <row r="442" spans="1:14">
+    <row r="442" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A442">
         <v>2022</v>
       </c>
@@ -21100,7 +21272,7 @@
         <v>33.1</v>
       </c>
     </row>
-    <row r="443" spans="1:14">
+    <row r="443" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A443">
         <v>2022</v>
       </c>
@@ -21142,7 +21314,7 @@
         <v>19.7</v>
       </c>
     </row>
-    <row r="444" spans="1:14">
+    <row r="444" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A444">
         <v>2022</v>
       </c>
@@ -21184,7 +21356,7 @@
         <v>42.8</v>
       </c>
     </row>
-    <row r="445" spans="1:14">
+    <row r="445" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A445">
         <v>2022</v>
       </c>
@@ -21226,7 +21398,7 @@
         <v>29.4</v>
       </c>
     </row>
-    <row r="446" spans="1:14">
+    <row r="446" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A446">
         <v>2022</v>
       </c>
@@ -21268,7 +21440,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="447" spans="1:14">
+    <row r="447" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A447">
         <v>2022</v>
       </c>
@@ -21310,7 +21482,7 @@
         <v>35.299999999999997</v>
       </c>
     </row>
-    <row r="448" spans="1:14">
+    <row r="448" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A448">
         <v>2022</v>
       </c>
@@ -21352,7 +21524,7 @@
         <v>18.8</v>
       </c>
     </row>
-    <row r="449" spans="1:14">
+    <row r="449" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A449">
         <v>2022</v>
       </c>
@@ -21394,7 +21566,7 @@
         <v>31.1</v>
       </c>
     </row>
-    <row r="450" spans="1:14">
+    <row r="450" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A450">
         <v>2022</v>
       </c>
@@ -21436,7 +21608,7 @@
         <v>44.5</v>
       </c>
     </row>
-    <row r="451" spans="1:14">
+    <row r="451" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A451">
         <v>2022</v>
       </c>
@@ -21478,7 +21650,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="452" spans="1:14">
+    <row r="452" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A452">
         <v>2022</v>
       </c>
@@ -21520,7 +21692,7 @@
         <v>19.399999999999999</v>
       </c>
     </row>
-    <row r="453" spans="1:14">
+    <row r="453" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A453">
         <v>2022</v>
       </c>
@@ -21562,7 +21734,7 @@
         <v>33.5</v>
       </c>
     </row>
-    <row r="454" spans="1:14">
+    <row r="454" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A454">
         <v>2022</v>
       </c>
@@ -21604,7 +21776,7 @@
         <v>32.9</v>
       </c>
     </row>
-    <row r="455" spans="1:14">
+    <row r="455" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A455">
         <v>2022</v>
       </c>
@@ -21646,7 +21818,7 @@
         <v>31.5</v>
       </c>
     </row>
-    <row r="456" spans="1:14">
+    <row r="456" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A456">
         <v>2022</v>
       </c>
@@ -21688,7 +21860,7 @@
         <v>22.8</v>
       </c>
     </row>
-    <row r="457" spans="1:14">
+    <row r="457" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A457">
         <v>2022</v>
       </c>
@@ -21730,7 +21902,7 @@
         <v>28.6</v>
       </c>
     </row>
-    <row r="458" spans="1:14">
+    <row r="458" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A458">
         <v>2022</v>
       </c>
@@ -21772,7 +21944,7 @@
         <v>23.1</v>
       </c>
     </row>
-    <row r="459" spans="1:14">
+    <row r="459" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A459">
         <v>2022</v>
       </c>
@@ -21814,7 +21986,7 @@
         <v>33.9</v>
       </c>
     </row>
-    <row r="460" spans="1:14">
+    <row r="460" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A460">
         <v>2022</v>
       </c>
@@ -21856,7 +22028,7 @@
         <v>26.7</v>
       </c>
     </row>
-    <row r="461" spans="1:14">
+    <row r="461" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A461">
         <v>2022</v>
       </c>
@@ -21898,7 +22070,7 @@
         <v>24.8</v>
       </c>
     </row>
-    <row r="462" spans="1:14">
+    <row r="462" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A462">
         <v>2022</v>
       </c>
@@ -21940,7 +22112,7 @@
         <v>17.899999999999999</v>
       </c>
     </row>
-    <row r="463" spans="1:14">
+    <row r="463" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A463">
         <v>2022</v>
       </c>
@@ -21982,7 +22154,7 @@
         <v>19.3</v>
       </c>
     </row>
-    <row r="464" spans="1:14">
+    <row r="464" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A464">
         <v>2022</v>
       </c>
@@ -22024,7 +22196,7 @@
         <v>23.7</v>
       </c>
     </row>
-    <row r="465" spans="1:14">
+    <row r="465" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A465">
         <v>2022</v>
       </c>
@@ -22066,7 +22238,7 @@
         <v>22.4</v>
       </c>
     </row>
-    <row r="466" spans="1:14">
+    <row r="466" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A466">
         <v>2022</v>
       </c>
@@ -22108,7 +22280,7 @@
         <v>32.9</v>
       </c>
     </row>
-    <row r="467" spans="1:14">
+    <row r="467" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A467">
         <v>2022</v>
       </c>
@@ -22150,7 +22322,7 @@
         <v>28.9</v>
       </c>
     </row>
-    <row r="468" spans="1:14">
+    <row r="468" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A468">
         <v>2022</v>
       </c>
@@ -22192,7 +22364,7 @@
         <v>25.9</v>
       </c>
     </row>
-    <row r="469" spans="1:14">
+    <row r="469" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A469">
         <v>2022</v>
       </c>
@@ -22234,7 +22406,7 @@
         <v>36.9</v>
       </c>
     </row>
-    <row r="470" spans="1:14">
+    <row r="470" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A470">
         <v>2022</v>
       </c>
@@ -22276,7 +22448,7 @@
         <v>18.899999999999999</v>
       </c>
     </row>
-    <row r="471" spans="1:14">
+    <row r="471" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A471">
         <v>2022</v>
       </c>
@@ -22318,7 +22490,7 @@
         <v>41.5</v>
       </c>
     </row>
-    <row r="472" spans="1:14">
+    <row r="472" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A472">
         <v>2022</v>
       </c>
@@ -22360,7 +22532,7 @@
         <v>29.2</v>
       </c>
     </row>
-    <row r="473" spans="1:14">
+    <row r="473" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A473">
         <v>2022</v>
       </c>
@@ -22402,7 +22574,7 @@
         <v>23.5</v>
       </c>
     </row>
-    <row r="474" spans="1:14">
+    <row r="474" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A474">
         <v>2022</v>
       </c>
@@ -22444,7 +22616,7 @@
         <v>23.6</v>
       </c>
     </row>
-    <row r="475" spans="1:14">
+    <row r="475" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A475">
         <v>2022</v>
       </c>
@@ -22486,7 +22658,7 @@
         <v>28.5</v>
       </c>
     </row>
-    <row r="476" spans="1:14">
+    <row r="476" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A476">
         <v>2022</v>
       </c>
@@ -22528,7 +22700,7 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="477" spans="1:14">
+    <row r="477" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A477">
         <v>2022</v>
       </c>
@@ -22570,7 +22742,7 @@
         <v>14.7</v>
       </c>
     </row>
-    <row r="478" spans="1:14">
+    <row r="478" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A478">
         <v>2022</v>
       </c>
@@ -22612,7 +22784,7 @@
         <v>18.3</v>
       </c>
     </row>
-    <row r="479" spans="1:14">
+    <row r="479" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A479">
         <v>2022</v>
       </c>
@@ -22654,7 +22826,7 @@
         <v>23.9</v>
       </c>
     </row>
-    <row r="480" spans="1:14">
+    <row r="480" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A480">
         <v>2022</v>
       </c>
@@ -22696,7 +22868,7 @@
         <v>22.6</v>
       </c>
     </row>
-    <row r="481" spans="1:14">
+    <row r="481" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A481">
         <v>2022</v>
       </c>
@@ -22738,7 +22910,7 @@
         <v>26.6</v>
       </c>
     </row>
-    <row r="482" spans="1:14">
+    <row r="482" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A482">
         <v>2022</v>
       </c>
@@ -22780,7 +22952,7 @@
         <v>29.9</v>
       </c>
     </row>
-    <row r="483" spans="1:14">
+    <row r="483" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A483">
         <v>2022</v>
       </c>
@@ -22822,7 +22994,7 @@
         <v>44.4</v>
       </c>
     </row>
-    <row r="484" spans="1:14">
+    <row r="484" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A484">
         <v>2022</v>
       </c>
@@ -22864,7 +23036,7 @@
         <v>23.1</v>
       </c>
     </row>
-    <row r="485" spans="1:14">
+    <row r="485" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A485">
         <v>2022</v>
       </c>
@@ -22906,7 +23078,7 @@
         <v>31.7</v>
       </c>
     </row>
-    <row r="486" spans="1:14">
+    <row r="486" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A486">
         <v>2022</v>
       </c>
@@ -22948,7 +23120,7 @@
         <v>23.7</v>
       </c>
     </row>
-    <row r="487" spans="1:14">
+    <row r="487" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A487">
         <v>2022</v>
       </c>
@@ -22990,7 +23162,7 @@
         <v>18.7</v>
       </c>
     </row>
-    <row r="488" spans="1:14">
+    <row r="488" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A488">
         <v>2022</v>
       </c>
@@ -23032,7 +23204,7 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="489" spans="1:14">
+    <row r="489" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A489">
         <v>2022</v>
       </c>
@@ -23077,7 +23249,7 @@
         <v>24.1</v>
       </c>
     </row>
-    <row r="490" spans="1:14">
+    <row r="490" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A490">
         <v>2022</v>
       </c>
@@ -23119,7 +23291,7 @@
         <v>32.799999999999997</v>
       </c>
     </row>
-    <row r="491" spans="1:14">
+    <row r="491" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A491">
         <v>2022</v>
       </c>
@@ -23161,7 +23333,7 @@
         <v>25.4</v>
       </c>
     </row>
-    <row r="492" spans="1:14">
+    <row r="492" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A492">
         <v>2022</v>
       </c>
@@ -23203,7 +23375,7 @@
         <v>45.7</v>
       </c>
     </row>
-    <row r="493" spans="1:14">
+    <row r="493" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A493">
         <v>2022</v>
       </c>
@@ -23245,7 +23417,7 @@
         <v>26.3</v>
       </c>
     </row>
-    <row r="494" spans="1:14">
+    <row r="494" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A494">
         <v>2022</v>
       </c>
@@ -23287,7 +23459,7 @@
         <v>28.1</v>
       </c>
     </row>
-    <row r="495" spans="1:14">
+    <row r="495" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A495">
         <v>2022</v>
       </c>
@@ -23329,7 +23501,7 @@
         <v>31.2</v>
       </c>
     </row>
-    <row r="496" spans="1:14">
+    <row r="496" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A496">
         <v>2022</v>
       </c>
@@ -23371,7 +23543,7 @@
         <v>47.6</v>
       </c>
     </row>
-    <row r="497" spans="1:14">
+    <row r="497" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A497">
         <v>2022</v>
       </c>
@@ -23413,7 +23585,7 @@
         <v>27.1</v>
       </c>
     </row>
-    <row r="498" spans="1:14">
+    <row r="498" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A498">
         <v>2022</v>
       </c>
@@ -23455,7 +23627,7 @@
         <v>25.1</v>
       </c>
     </row>
-    <row r="499" spans="1:14">
+    <row r="499" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A499">
         <v>2022</v>
       </c>
@@ -23497,7 +23669,7 @@
         <v>40.799999999999997</v>
       </c>
     </row>
-    <row r="500" spans="1:14">
+    <row r="500" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A500">
         <v>2022</v>
       </c>
@@ -23539,7 +23711,7 @@
         <v>38.700000000000003</v>
       </c>
     </row>
-    <row r="501" spans="1:14">
+    <row r="501" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A501">
         <v>2022</v>
       </c>
@@ -23581,7 +23753,7 @@
         <v>22.8</v>
       </c>
     </row>
-    <row r="502" spans="1:14">
+    <row r="502" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A502">
         <v>2022</v>
       </c>
@@ -23626,7 +23798,7 @@
         <v>27.3</v>
       </c>
     </row>
-    <row r="503" spans="1:14">
+    <row r="503" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A503">
         <v>2022</v>
       </c>
@@ -23668,7 +23840,7 @@
         <v>25.4</v>
       </c>
     </row>
-    <row r="504" spans="1:14">
+    <row r="504" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A504">
         <v>2022</v>
       </c>
@@ -23710,7 +23882,7 @@
         <v>23.8</v>
       </c>
     </row>
-    <row r="505" spans="1:14">
+    <row r="505" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A505">
         <v>2022</v>
       </c>
@@ -23752,7 +23924,7 @@
         <v>36.700000000000003</v>
       </c>
     </row>
-    <row r="506" spans="1:14">
+    <row r="506" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A506">
         <v>2022</v>
       </c>
@@ -23794,7 +23966,7 @@
         <v>17.2</v>
       </c>
     </row>
-    <row r="507" spans="1:14">
+    <row r="507" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A507">
         <v>2022</v>
       </c>
@@ -23839,7 +24011,7 @@
         <v>29.3</v>
       </c>
     </row>
-    <row r="508" spans="1:14">
+    <row r="508" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A508">
         <v>2022</v>
       </c>
@@ -23881,7 +24053,7 @@
         <v>28.3</v>
       </c>
     </row>
-    <row r="509" spans="1:14">
+    <row r="509" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A509">
         <v>2022</v>
       </c>
@@ -23923,7 +24095,7 @@
         <v>25.3</v>
       </c>
     </row>
-    <row r="510" spans="1:14">
+    <row r="510" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A510">
         <v>2022</v>
       </c>
@@ -23968,7 +24140,7 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="511" spans="1:14">
+    <row r="511" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A511">
         <v>2022</v>
       </c>
@@ -24013,7 +24185,7 @@
         <v>23.5</v>
       </c>
     </row>
-    <row r="512" spans="1:14">
+    <row r="512" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A512">
         <v>2022</v>
       </c>
@@ -24055,7 +24227,7 @@
         <v>29.2</v>
       </c>
     </row>
-    <row r="513" spans="1:14">
+    <row r="513" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A513">
         <v>2022</v>
       </c>
@@ -24097,7 +24269,7 @@
         <v>34.9</v>
       </c>
     </row>
-    <row r="514" spans="1:14">
+    <row r="514" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A514">
         <v>2022</v>
       </c>
@@ -24139,7 +24311,7 @@
         <v>28.3</v>
       </c>
     </row>
-    <row r="515" spans="1:14">
+    <row r="515" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A515">
         <v>2022</v>
       </c>
@@ -24181,7 +24353,7 @@
         <v>28.8</v>
       </c>
     </row>
-    <row r="516" spans="1:14">
+    <row r="516" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A516">
         <v>2022</v>
       </c>
@@ -24223,7 +24395,7 @@
         <v>19.100000000000001</v>
       </c>
     </row>
-    <row r="517" spans="1:14">
+    <row r="517" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A517">
         <v>2022</v>
       </c>
@@ -24264,6 +24436,102 @@
       <c r="N517">
         <v>28.9</v>
       </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC63C2AA-D51C-4091-9D41-30921FFFF4A9}">
+  <dimension ref="D4:N12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="12" max="12" width="12.5" customWidth="1"/>
+    <col min="13" max="13" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="4:14" ht="15.6" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="L5" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="N5" s="6">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="6" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L6" s="7"/>
+      <c r="M6" s="8" t="s">
+        <v>467</v>
+      </c>
+      <c r="N6" s="9">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>462</v>
+      </c>
+      <c r="M7" s="11" t="s">
+        <v>463</v>
+      </c>
+      <c r="N7" s="12">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="8" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="10"/>
+      <c r="M8" s="11" t="s">
+        <v>464</v>
+      </c>
+      <c r="N8" s="12">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="9" spans="4:14" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" s="13" t="s">
+        <v>465</v>
+      </c>
+      <c r="M9" s="14" t="s">
+        <v>466</v>
+      </c>
+      <c r="N9" s="15">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="N12" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/RobbyYu/Kmeans/Original/THE_Asia.xlsx
+++ b/RobbyYu/Kmeans/Original/THE_Asia.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20388"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20389"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\georg\PycharmProjects\pythonProject\RobbyYu\Kmeans\Original\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B277DCE1-926B-4B20-B8F6-D8730D1F6921}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{258E032F-1679-427A-843D-E9FC3DF601B6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19200" yWindow="504" windowWidth="19200" windowHeight="21096" activeTab="1" xr2:uid="{F74F6196-6389-45E6-BE86-199746C945DA}"/>
   </bookViews>
@@ -1461,7 +1461,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1492,6 +1495,12 @@
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1630,41 +1639,41 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="10" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="10" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="10" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="10" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="10" fontId="4" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="10" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="10" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="10" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -24447,25 +24456,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC63C2AA-D51C-4091-9D41-30921FFFF4A9}">
   <dimension ref="D4:N12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" topLeftCell="J4" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5:N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="12" max="12" width="12.5" customWidth="1"/>
-    <col min="13" max="13" width="18" customWidth="1"/>
+    <col min="13" max="13" width="21.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="4:14" ht="15.6" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="4:14" x14ac:dyDescent="0.3">
-      <c r="L5" s="4" t="s">
+      <c r="L5" s="13" t="s">
         <v>460</v>
       </c>
-      <c r="M5" s="5" t="s">
+      <c r="M5" s="4" t="s">
         <v>461</v>
       </c>
-      <c r="N5" s="6">
+      <c r="N5" s="5">
         <v>0.3</v>
       </c>
     </row>
@@ -24473,11 +24482,11 @@
       <c r="D6" t="s">
         <v>8</v>
       </c>
-      <c r="L6" s="7"/>
-      <c r="M6" s="8" t="s">
+      <c r="L6" s="14"/>
+      <c r="M6" s="6" t="s">
         <v>467</v>
       </c>
-      <c r="N6" s="9">
+      <c r="N6" s="7">
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
@@ -24485,13 +24494,13 @@
       <c r="D7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L7" s="10" t="s">
+      <c r="L7" s="15" t="s">
         <v>462</v>
       </c>
-      <c r="M7" s="11" t="s">
+      <c r="M7" s="8" t="s">
         <v>463</v>
       </c>
-      <c r="N7" s="12">
+      <c r="N7" s="9">
         <v>0.3</v>
       </c>
     </row>
@@ -24499,11 +24508,11 @@
       <c r="D8" t="s">
         <v>10</v>
       </c>
-      <c r="L8" s="10"/>
-      <c r="M8" s="11" t="s">
+      <c r="L8" s="15"/>
+      <c r="M8" s="8" t="s">
         <v>464</v>
       </c>
-      <c r="N8" s="12">
+      <c r="N8" s="9">
         <v>0.25</v>
       </c>
     </row>
@@ -24511,13 +24520,13 @@
       <c r="D9" t="s">
         <v>11</v>
       </c>
-      <c r="L9" s="13" t="s">
+      <c r="L9" s="10" t="s">
         <v>465</v>
       </c>
-      <c r="M9" s="14" t="s">
+      <c r="M9" s="11" t="s">
         <v>466</v>
       </c>
-      <c r="N9" s="15">
+      <c r="N9" s="12">
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
@@ -24534,6 +24543,10 @@
       <c r="N12" s="3"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="L7:L8"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/RobbyYu/Kmeans/Original/THE_Asia.xlsx
+++ b/RobbyYu/Kmeans/Original/THE_Asia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\georg\PycharmProjects\pythonProject\RobbyYu\Kmeans\Original\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{258E032F-1679-427A-843D-E9FC3DF601B6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21C1E1B8-3D40-4094-9EF5-D8C0774A72A7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="504" windowWidth="19200" windowHeight="21096" activeTab="1" xr2:uid="{F74F6196-6389-45E6-BE86-199746C945DA}"/>
+    <workbookView minimized="1" xWindow="19200" yWindow="504" windowWidth="19200" windowHeight="21096" activeTab="1" xr2:uid="{F74F6196-6389-45E6-BE86-199746C945DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1695" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1737" uniqueCount="497">
   <si>
     <t>Year</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1455,6 +1455,116 @@
   </si>
   <si>
     <t>Industry income</t>
+  </si>
+  <si>
+    <t>Reputation survey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Staff-to-student ratio </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Doctorate-to-bachelor’s ratio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Doctorates-awarded-to-academic-staff ratio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Institutional income</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Research income </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Research productivity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Citations (research influence): </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>International-to-domestic-student ratio 2.5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>International-to-domestic-staff ratio 2.5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>International collaboration 2.5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Industry income (knowledge transfer): 7.5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Teaching</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Research</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Citations</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>International outlook</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Teaching-Reputation survey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Research-Reputation survey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Staff-to-student ratio </t>
+  </si>
+  <si>
+    <t>Doctorate-to-bachelor’s ratio</t>
+  </si>
+  <si>
+    <t>Doctorates-awarded-to-academic-staff ratio</t>
+  </si>
+  <si>
+    <t>Institutional income</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Research income </t>
+  </si>
+  <si>
+    <t>Research productivity</t>
+  </si>
+  <si>
+    <t>International-to-domestic-student ratio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>International-to-domestic-staff ratio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>International collaboration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Citation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Industry income</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1626,7 +1736,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1666,6 +1776,18 @@
     <xf numFmtId="176" fontId="4" fillId="4" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="10" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1674,6 +1796,33 @@
     </xf>
     <xf numFmtId="10" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1992,8 +2141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FFD0F61-B1F6-43FF-B9E7-18E45657851B}">
   <dimension ref="A1:N517"/>
   <sheetViews>
-    <sheetView topLeftCell="A245" workbookViewId="0">
-      <selection activeCell="R261" sqref="R261"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -24454,21 +24603,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC63C2AA-D51C-4091-9D41-30921FFFF4A9}">
-  <dimension ref="D4:N12"/>
+  <dimension ref="C4:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J4" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5:N9"/>
+    <sheetView tabSelected="1" topLeftCell="D28" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="3" max="3" width="17.625" customWidth="1"/>
+    <col min="4" max="4" width="21.625" customWidth="1"/>
     <col min="12" max="12" width="12.5" customWidth="1"/>
-    <col min="13" max="13" width="21.625" customWidth="1"/>
+    <col min="13" max="13" width="42" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="4:14" ht="15.6" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="4:14" x14ac:dyDescent="0.3">
-      <c r="L5" s="13" t="s">
+    <row r="4" spans="3:14" ht="15.6" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="L5" s="17" t="s">
         <v>460</v>
       </c>
       <c r="M5" s="4" t="s">
@@ -24478,11 +24629,11 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="6" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:14" x14ac:dyDescent="0.3">
       <c r="D6" t="s">
         <v>8</v>
       </c>
-      <c r="L6" s="14"/>
+      <c r="L6" s="18"/>
       <c r="M6" s="6" t="s">
         <v>467</v>
       </c>
@@ -24490,11 +24641,11 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="7" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:14" x14ac:dyDescent="0.3">
       <c r="D7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L7" s="15" t="s">
+      <c r="L7" s="19" t="s">
         <v>462</v>
       </c>
       <c r="M7" s="8" t="s">
@@ -24504,11 +24655,11 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="8" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:14" x14ac:dyDescent="0.3">
       <c r="D8" t="s">
         <v>10</v>
       </c>
-      <c r="L8" s="15"/>
+      <c r="L8" s="19"/>
       <c r="M8" s="8" t="s">
         <v>464</v>
       </c>
@@ -24516,7 +24667,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="9" spans="4:14" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="3:14" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D9" t="s">
         <v>11</v>
       </c>
@@ -24530,24 +24681,335 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="10" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:14" x14ac:dyDescent="0.3">
       <c r="D10" s="2" t="s">
         <v>12</v>
       </c>
       <c r="N10" s="3"/>
     </row>
-    <row r="11" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:14" x14ac:dyDescent="0.3">
       <c r="N11" s="3"/>
     </row>
-    <row r="12" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:14" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="N12" s="3"/>
     </row>
+    <row r="13" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C13" s="16" t="s">
+        <v>480</v>
+      </c>
+      <c r="D13" t="s">
+        <v>468</v>
+      </c>
+      <c r="E13" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="F13" s="28">
+        <f>E13/SUM($E$13:$E$17)</f>
+        <v>0.4</v>
+      </c>
+      <c r="L13" s="17" t="s">
+        <v>460</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="N13" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C14" s="16"/>
+      <c r="D14" t="s">
+        <v>469</v>
+      </c>
+      <c r="E14" s="14">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="F14" s="28">
+        <f t="shared" ref="F14:F17" si="0">E14/SUM($E$13:$E$17)</f>
+        <v>0.18</v>
+      </c>
+      <c r="L14" s="18"/>
+      <c r="M14" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="N14" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C15" s="16"/>
+      <c r="D15" t="s">
+        <v>470</v>
+      </c>
+      <c r="E15" s="14">
+        <v>2.2499999999999999E-2</v>
+      </c>
+      <c r="F15" s="28">
+        <f t="shared" si="0"/>
+        <v>0.09</v>
+      </c>
+      <c r="L15" s="19" t="s">
+        <v>462</v>
+      </c>
+      <c r="M15" s="8" t="s">
+        <v>463</v>
+      </c>
+      <c r="N15" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C16" s="16"/>
+      <c r="D16" t="s">
+        <v>471</v>
+      </c>
+      <c r="E16" s="13">
+        <v>0.06</v>
+      </c>
+      <c r="F16" s="28">
+        <f t="shared" si="0"/>
+        <v>0.24</v>
+      </c>
+      <c r="L16" s="19"/>
+      <c r="M16" s="8" t="s">
+        <v>464</v>
+      </c>
+      <c r="N16" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="3:14" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C17" s="16"/>
+      <c r="D17" t="s">
+        <v>472</v>
+      </c>
+      <c r="E17" s="14">
+        <v>2.2499999999999999E-2</v>
+      </c>
+      <c r="F17" s="28">
+        <f t="shared" si="0"/>
+        <v>0.09</v>
+      </c>
+      <c r="L17" s="10" t="s">
+        <v>465</v>
+      </c>
+      <c r="M17" s="11" t="s">
+        <v>466</v>
+      </c>
+      <c r="N17" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C19" s="16" t="s">
+        <v>481</v>
+      </c>
+      <c r="D19" t="s">
+        <v>468</v>
+      </c>
+      <c r="E19" s="13">
+        <v>0.15</v>
+      </c>
+      <c r="F19" s="28">
+        <f>E19/SUM($E$19:$E$21)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20" spans="3:14" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C20" s="16"/>
+      <c r="D20" t="s">
+        <v>473</v>
+      </c>
+      <c r="E20" s="14">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="F20" s="28">
+        <f t="shared" ref="F20:F21" si="1">E20/SUM($E$19:$E$21)</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C21" s="16"/>
+      <c r="D21" t="s">
+        <v>474</v>
+      </c>
+      <c r="E21" s="14">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="F21" s="28">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+      <c r="L21" s="17" t="s">
+        <v>460</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="N21" s="25">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C22" s="15" t="s">
+        <v>482</v>
+      </c>
+      <c r="D22" t="s">
+        <v>475</v>
+      </c>
+      <c r="E22" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="L22" s="18"/>
+      <c r="M22" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="N22" s="26">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C23" s="16" t="s">
+        <v>483</v>
+      </c>
+      <c r="D23" t="s">
+        <v>476</v>
+      </c>
+      <c r="L23" s="19" t="s">
+        <v>462</v>
+      </c>
+      <c r="M23" s="8" t="s">
+        <v>486</v>
+      </c>
+      <c r="N23" s="27">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C24" s="16"/>
+      <c r="D24" t="s">
+        <v>477</v>
+      </c>
+      <c r="L24" s="19"/>
+      <c r="M24" s="8" t="s">
+        <v>487</v>
+      </c>
+      <c r="N24" s="27">
+        <v>2.2499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C25" s="16"/>
+      <c r="D25" t="s">
+        <v>478</v>
+      </c>
+      <c r="L25" s="19"/>
+      <c r="M25" s="8" t="s">
+        <v>488</v>
+      </c>
+      <c r="N25" s="27">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C26" s="15"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="8" t="s">
+        <v>489</v>
+      </c>
+      <c r="N26" s="27">
+        <v>2.2499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C27" s="15" t="s">
+        <v>479</v>
+      </c>
+      <c r="D27" t="s">
+        <v>479</v>
+      </c>
+      <c r="L27" s="19"/>
+      <c r="M27" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="N27" s="27">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C28" s="15"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="8" t="s">
+        <v>491</v>
+      </c>
+      <c r="N28" s="27">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C29" s="15"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="8" t="s">
+        <v>495</v>
+      </c>
+      <c r="N29" s="27">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="L30" s="19"/>
+      <c r="M30" s="8" t="s">
+        <v>496</v>
+      </c>
+      <c r="N30" s="27">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="L31" s="22" t="s">
+        <v>465</v>
+      </c>
+      <c r="M31" s="21" t="s">
+        <v>492</v>
+      </c>
+      <c r="N31" s="23">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="L32" s="22"/>
+      <c r="M32" s="21" t="s">
+        <v>493</v>
+      </c>
+      <c r="N32" s="23">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="12:14" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L33" s="20"/>
+      <c r="M33" s="11" t="s">
+        <v>494</v>
+      </c>
+      <c r="N33" s="24">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="10">
+    <mergeCell ref="L31:L33"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="C23:C25"/>
     <mergeCell ref="L5:L6"/>
     <mergeCell ref="L7:L8"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="C13:C17"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="L23:L30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>